--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\WJHA47YJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56E394F-9D28-4E47-8353-9E0E8E42E89D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDE406-0337-4B69-83F1-868E6D11E866}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
     <sheet name="emailsPreklopeni" sheetId="2" r:id="rId2"/>
     <sheet name="ciselnik" sheetId="3" r:id="rId3"/>
+    <sheet name="List1" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ciselnik!$A$1:$C$136</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="597">
   <si>
     <t>No.</t>
   </si>
@@ -81,12 +82,6 @@
     <t>Obchodník</t>
   </si>
   <si>
-    <t>Datum montáže OD</t>
-  </si>
-  <si>
-    <t>Datum montáže Do</t>
-  </si>
-  <si>
     <t>Zkratka</t>
   </si>
   <si>
@@ -1770,34 +1765,76 @@
     <t>Kontaktní Telefon</t>
   </si>
   <si>
-    <t>Václav Zoubek</t>
-  </si>
-  <si>
     <t>859182400400189225</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivan Mikulec </t>
-  </si>
-  <si>
     <t>859182400503929049</t>
   </si>
   <si>
-    <t xml:space="preserve">Jarmila Thiebergerová </t>
-  </si>
-  <si>
     <t>859182400511490852</t>
   </si>
   <si>
-    <t xml:space="preserve">Ing. Miroslav Macháň </t>
-  </si>
-  <si>
     <t>859182400801159728</t>
   </si>
   <si>
     <t>859182400700463162</t>
   </si>
   <si>
-    <t>Společenství vlastníků jednotek B. Němcové č.p.1197, Moravská Třebová</t>
+    <t>author</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>kontaktPPP</t>
+  </si>
+  <si>
+    <t>mistoSpotreby</t>
+  </si>
+  <si>
+    <t>umisteniPristroje</t>
+  </si>
+  <si>
+    <t>cisloOdbernehoMistaDistr</t>
+  </si>
+  <si>
+    <t>oznaceniSmluvnihoUctu</t>
+  </si>
+  <si>
+    <t>reas</t>
+  </si>
+  <si>
+    <t>datumPrihlaseni</t>
+  </si>
+  <si>
+    <t>odectovaJednotka</t>
+  </si>
+  <si>
+    <t>typProvozuVyrobny</t>
+  </si>
+  <si>
+    <t>resitelKontaktu</t>
+  </si>
+  <si>
+    <t>poznamka</t>
+  </si>
+  <si>
+    <t>obchodnik</t>
+  </si>
+  <si>
+    <t>obchodnikEmail</t>
+  </si>
+  <si>
+    <t>emailPredmet</t>
+  </si>
+  <si>
+    <t>kontaktniTelefon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_DictionaryValues("datumPrihlaseni").ToString </t>
+  </si>
+  <si>
+    <t>cisloZOP</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1898,7 +1935,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2201,10 +2237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:S168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,30 +2261,28 @@
     <col min="15" max="15" width="41.7109375" customWidth="1"/>
     <col min="16" max="16" width="50.7109375" customWidth="1"/>
     <col min="17" max="17" width="41" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" customWidth="1"/>
-    <col min="21" max="21" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -2269,7 +2303,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>9</v>
@@ -2281,31 +2315,25 @@
         <v>11</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(C2&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>576</v>
+        <v>563</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="D2" s="6">
         <v>1107959414</v>
@@ -2323,10 +2351,10 @@
         <v>7961155</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K2" s="12">
         <v>44165</v>
@@ -2348,36 +2376,30 @@
         <v>Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu 30.11.2020. EAN 859182400400189225. Žádám o aktualizaci dat v CS OTE. Děkuji.</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q2" s="6" t="str">
         <f>IFERROR(VLOOKUP(P2,ciselnik!A:C,3,0),"")</f>
         <v>zmenadodavatele@innogy.com</v>
       </c>
-      <c r="R2" s="12">
-        <v>44165</v>
-      </c>
-      <c r="S2" s="12">
-        <v>44165</v>
-      </c>
-      <c r="T2" s="6" t="str">
-        <f t="shared" ref="T2:T6" si="1">IF(C2&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C2,"")</f>
+      <c r="R2" s="6" t="str">
+        <f t="shared" ref="R2:R6" si="1">IF(C2&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C2,"")</f>
         <v>Připojení mikrozdroje EAN 859182400400189225</v>
       </c>
-      <c r="U2" s="6">
+      <c r="S2" s="6">
         <v>777875678</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(C3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6">
         <v>1107963387</v>
@@ -2395,10 +2417,10 @@
         <v>5129900</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K3" s="12">
         <v>44166</v>
@@ -2420,36 +2442,30 @@
         <v>Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu 1.12.2020. EAN 859182400503929049. Žádám o aktualizaci dat v CS OTE. Děkuji.</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q3" s="6" t="str">
         <f>IFERROR(VLOOKUP(P3,ciselnik!A:C,3,0),"")</f>
         <v>prilohy.rsd@mnd.cz</v>
       </c>
-      <c r="R3" s="12">
-        <v>44166</v>
-      </c>
-      <c r="S3" s="12">
-        <v>44166</v>
-      </c>
-      <c r="T3" s="6" t="str">
+      <c r="R3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Připojení mikrozdroje EAN 859182400503929049</v>
       </c>
-      <c r="U3" s="6">
+      <c r="S3" s="6">
         <v>603283816</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A8" si="2">IF(C4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D4" s="6">
         <v>1107963829</v>
@@ -2467,10 +2483,10 @@
         <v>102528111</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K4" s="12">
         <v>44162</v>
@@ -2492,36 +2508,30 @@
         <v>Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu 27.11.2020. EAN 859182400511490852. Žádám o aktualizaci dat v CS OTE. Děkuji.</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f>IFERROR(VLOOKUP(P4,ciselnik!A:C,3,0),"")</f>
         <v>zmena.dodavatele@cez.cz</v>
       </c>
-      <c r="R4" s="12">
-        <v>44162</v>
-      </c>
-      <c r="S4" s="12">
-        <v>44162</v>
-      </c>
-      <c r="T4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Připojení mikrozdroje EAN 859182400511490852</v>
       </c>
-      <c r="U4" s="6">
+      <c r="S4" s="6">
         <v>777232251</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D5" s="6">
         <v>1107968965</v>
@@ -2539,10 +2549,10 @@
         <v>102520569</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K5" s="12">
         <v>44167</v>
@@ -2564,36 +2574,30 @@
         <v>Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu 2.12.2020. EAN 859182400801159728. Žádám o aktualizaci dat v CS OTE. Děkuji.</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="6" t="str">
         <f>IFERROR(VLOOKUP(P5,ciselnik!A:C,3,0),"")</f>
         <v>eeneka@seznam.cz</v>
       </c>
-      <c r="R5" s="12">
-        <v>44167</v>
-      </c>
-      <c r="S5" s="12">
-        <v>44167</v>
-      </c>
-      <c r="T5" s="6" t="str">
+      <c r="R5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Připojení mikrozdroje EAN 859182400801159728</v>
       </c>
-      <c r="U5" s="6">
+      <c r="S5" s="6">
         <v>606655037</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D6" s="6">
         <v>1107992687</v>
@@ -2611,10 +2615,10 @@
         <v>2399763</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K6" s="12">
         <v>44166</v>
@@ -2636,79 +2640,69 @@
         <v>Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu 1.12.2020. EAN 859182400700463162. Žádám o aktualizaci dat v CS OTE. Děkuji.</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f>IFERROR(VLOOKUP(P6,ciselnik!A:C,3,0),"")</f>
         <v>zmena.dodavatele@cez.cz</v>
       </c>
-      <c r="R6" s="12">
-        <v>44166</v>
-      </c>
-      <c r="S6" s="12">
-        <v>44166</v>
-      </c>
-      <c r="T6" s="6" t="str">
+      <c r="R6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Připojení mikrozdroje EAN 859182400700463162</v>
       </c>
-      <c r="U6" s="6">
+      <c r="S6" s="6">
         <v>603781363</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="str">
+    <row r="7" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-    </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(C9&lt;&gt;"",#REF!+1,"")</f>
         <v/>
@@ -2736,7 +2730,7 @@
         <v/>
       </c>
       <c r="O9" s="4" t="str">
-        <f t="shared" ref="O2:O32" si="3">IF(C9&lt;&gt;"","Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu "&amp;DAY(K9)&amp;"."&amp;MONTH(K9)&amp;"."&amp;YEAR(K9)&amp;". EAN "&amp;C9&amp;". Žádám o aktualizaci dat v CS OTE. Děkuji.","")</f>
+        <f t="shared" ref="O9:O32" si="3">IF(C9&lt;&gt;"","Připojení mikrozdroje (MS) na hladině NN ve stávajícím OM k datu "&amp;DAY(K9)&amp;"."&amp;MONTH(K9)&amp;"."&amp;YEAR(K9)&amp;". EAN "&amp;C9&amp;". Žádám o aktualizaci dat v CS OTE. Děkuji.","")</f>
         <v/>
       </c>
       <c r="P9" s="4"/>
@@ -2744,15 +2738,13 @@
         <f>IFERROR(VLOOKUP(P9,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="4" t="str">
-        <f t="shared" ref="T2:T33" si="4">IF(C9&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C9,"")</f>
-        <v/>
-      </c>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R9" s="4" t="str">
+        <f t="shared" ref="R9:R33" si="4">IF(C9&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C9,"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" ref="A10:A66" si="5">IF(C10&lt;&gt;"",A9+1,"")</f>
         <v/>
@@ -2788,15 +2780,13 @@
         <f>IFERROR(VLOOKUP(P10,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="4" t="str">
+      <c r="R10" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2832,15 +2822,13 @@
         <f>IFERROR(VLOOKUP(P11,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="4" t="str">
+      <c r="R11" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2876,15 +2864,13 @@
         <f>IFERROR(VLOOKUP(P12,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="4" t="str">
+      <c r="R12" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2920,15 +2906,13 @@
         <f>IFERROR(VLOOKUP(P13,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="4" t="str">
+      <c r="R13" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2964,15 +2948,13 @@
         <f>IFERROR(VLOOKUP(P14,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="4" t="str">
+      <c r="R14" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3008,15 +2990,13 @@
         <f>IFERROR(VLOOKUP(P15,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="4" t="str">
+      <c r="R15" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3052,15 +3032,13 @@
         <f>IFERROR(VLOOKUP(P16,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="4" t="str">
+      <c r="R16" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3096,15 +3074,13 @@
         <f>IFERROR(VLOOKUP(P17,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="4" t="str">
+      <c r="R17" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3140,15 +3116,13 @@
         <f>IFERROR(VLOOKUP(P18,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="4" t="str">
+      <c r="R18" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3184,15 +3158,13 @@
         <f>IFERROR(VLOOKUP(P19,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="4" t="str">
+      <c r="R19" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3228,15 +3200,13 @@
         <f>IFERROR(VLOOKUP(P20,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="4" t="str">
+      <c r="R20" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3272,15 +3242,13 @@
         <f>IFERROR(VLOOKUP(P21,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="4" t="str">
+      <c r="R21" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3316,15 +3284,13 @@
         <f>IFERROR(VLOOKUP(P22,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="4" t="str">
+      <c r="R22" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3360,15 +3326,13 @@
         <f>IFERROR(VLOOKUP(P23,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="4" t="str">
+      <c r="R23" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3404,15 +3368,13 @@
         <f>IFERROR(VLOOKUP(P24,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="4" t="str">
+      <c r="R24" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3448,15 +3410,13 @@
         <f>IFERROR(VLOOKUP(P25,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="4" t="str">
+      <c r="R25" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3492,15 +3452,13 @@
         <f>IFERROR(VLOOKUP(P26,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="4" t="str">
+      <c r="R26" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3536,15 +3494,13 @@
         <f>IFERROR(VLOOKUP(P27,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="4" t="str">
+      <c r="R27" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3580,15 +3536,13 @@
         <f>IFERROR(VLOOKUP(P28,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="4" t="str">
+      <c r="R28" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3624,15 +3578,13 @@
         <f>IFERROR(VLOOKUP(P29,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="4" t="str">
+      <c r="R29" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3668,15 +3620,13 @@
         <f>IFERROR(VLOOKUP(P30,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="4" t="str">
+      <c r="R30" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3712,15 +3662,13 @@
         <f>IFERROR(VLOOKUP(P31,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="4" t="str">
+      <c r="R31" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3756,15 +3704,13 @@
         <f>IFERROR(VLOOKUP(P32,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="4" t="str">
+      <c r="R32" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3800,15 +3746,13 @@
         <f>IFERROR(VLOOKUP(P33,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="4" t="str">
+      <c r="R33" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3844,15 +3788,13 @@
         <f>IFERROR(VLOOKUP(P34,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="4" t="str">
-        <f t="shared" ref="T34:T65" si="7">IF(C34&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C34,"")</f>
-        <v/>
-      </c>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R34" s="4" t="str">
+        <f t="shared" ref="R34:R65" si="7">IF(C34&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C34,"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3888,15 +3830,13 @@
         <f>IFERROR(VLOOKUP(P35,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="4" t="str">
+      <c r="R35" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3932,15 +3872,13 @@
         <f>IFERROR(VLOOKUP(P36,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="4" t="str">
+      <c r="R36" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3976,15 +3914,13 @@
         <f>IFERROR(VLOOKUP(P37,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="4" t="str">
+      <c r="R37" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4020,15 +3956,13 @@
         <f>IFERROR(VLOOKUP(P38,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="4" t="str">
+      <c r="R38" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4064,15 +3998,13 @@
         <f>IFERROR(VLOOKUP(P39,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="4" t="str">
+      <c r="R39" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4108,15 +4040,13 @@
         <f>IFERROR(VLOOKUP(P40,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="4" t="str">
+      <c r="R40" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4152,15 +4082,13 @@
         <f>IFERROR(VLOOKUP(P41,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="4" t="str">
+      <c r="R41" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4196,15 +4124,13 @@
         <f>IFERROR(VLOOKUP(P42,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="4" t="str">
+      <c r="R42" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4240,15 +4166,13 @@
         <f>IFERROR(VLOOKUP(P43,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="4" t="str">
+      <c r="R43" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4284,15 +4208,13 @@
         <f>IFERROR(VLOOKUP(P44,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="4" t="str">
+      <c r="R44" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4328,15 +4250,13 @@
         <f>IFERROR(VLOOKUP(P45,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="4" t="str">
+      <c r="R45" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4372,15 +4292,13 @@
         <f>IFERROR(VLOOKUP(P46,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="4" t="str">
+      <c r="R46" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4416,15 +4334,13 @@
         <f>IFERROR(VLOOKUP(P47,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="4" t="str">
+      <c r="R47" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4460,15 +4376,13 @@
         <f>IFERROR(VLOOKUP(P48,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="4" t="str">
+      <c r="R48" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4504,15 +4418,13 @@
         <f>IFERROR(VLOOKUP(P49,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="4" t="str">
+      <c r="R49" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4548,15 +4460,13 @@
         <f>IFERROR(VLOOKUP(P50,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="4" t="str">
+      <c r="R50" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U50" s="4"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4592,15 +4502,13 @@
         <f>IFERROR(VLOOKUP(P51,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="4" t="str">
+      <c r="R51" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U51" s="4"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4636,15 +4544,13 @@
         <f>IFERROR(VLOOKUP(P52,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="4" t="str">
+      <c r="R52" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U52" s="4"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4680,15 +4586,13 @@
         <f>IFERROR(VLOOKUP(P53,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="4" t="str">
+      <c r="R53" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U53" s="4"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4724,15 +4628,13 @@
         <f>IFERROR(VLOOKUP(P54,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="4" t="str">
+      <c r="R54" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U54" s="4"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4768,15 +4670,13 @@
         <f>IFERROR(VLOOKUP(P55,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="4" t="str">
+      <c r="R55" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U55" s="4"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4812,15 +4712,13 @@
         <f>IFERROR(VLOOKUP(P56,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="4" t="str">
+      <c r="R56" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U56" s="4"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4856,15 +4754,13 @@
         <f>IFERROR(VLOOKUP(P57,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="4" t="str">
+      <c r="R57" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U57" s="4"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4900,15 +4796,13 @@
         <f>IFERROR(VLOOKUP(P58,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="4" t="str">
+      <c r="R58" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U58" s="4"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4944,15 +4838,13 @@
         <f>IFERROR(VLOOKUP(P59,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="4" t="str">
+      <c r="R59" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U59" s="4"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4988,15 +4880,13 @@
         <f>IFERROR(VLOOKUP(P60,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="4" t="str">
+      <c r="R60" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U60" s="4"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5032,15 +4922,13 @@
         <f>IFERROR(VLOOKUP(P61,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="4" t="str">
+      <c r="R61" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U61" s="4"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5076,15 +4964,13 @@
         <f>IFERROR(VLOOKUP(P62,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="4" t="str">
+      <c r="R62" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U62" s="4"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5120,15 +5006,13 @@
         <f>IFERROR(VLOOKUP(P63,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="4" t="str">
+      <c r="R63" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U63" s="4"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5164,15 +5048,13 @@
         <f>IFERROR(VLOOKUP(P64,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="4" t="str">
+      <c r="R64" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U64" s="4"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5208,15 +5090,13 @@
         <f>IFERROR(VLOOKUP(P65,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="4" t="str">
+      <c r="R65" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5252,15 +5132,13 @@
         <f>IFERROR(VLOOKUP(P66,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="4" t="str">
-        <f t="shared" ref="T66:T129" si="9">IF(C66&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C66,"")</f>
-        <v/>
-      </c>
-      <c r="U66" s="4"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R66" s="4" t="str">
+        <f t="shared" ref="R66:R129" si="9">IF(C66&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C66,"")</f>
+        <v/>
+      </c>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" ref="A67:A130" si="10">IF(C67&lt;&gt;"",A66+1,"")</f>
         <v/>
@@ -5296,15 +5174,13 @@
         <f>IFERROR(VLOOKUP(P67,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="4" t="str">
+      <c r="R67" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U67" s="4"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5340,15 +5216,13 @@
         <f>IFERROR(VLOOKUP(P68,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="4" t="str">
+      <c r="R68" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U68" s="4"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5384,15 +5258,13 @@
         <f>IFERROR(VLOOKUP(P69,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="4" t="str">
+      <c r="R69" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U69" s="4"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5428,15 +5300,13 @@
         <f>IFERROR(VLOOKUP(P70,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="4" t="str">
+      <c r="R70" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U70" s="4"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5472,15 +5342,13 @@
         <f>IFERROR(VLOOKUP(P71,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="4" t="str">
+      <c r="R71" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U71" s="4"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5516,15 +5384,13 @@
         <f>IFERROR(VLOOKUP(P72,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="4" t="str">
+      <c r="R72" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U72" s="4"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5560,15 +5426,13 @@
         <f>IFERROR(VLOOKUP(P73,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="4" t="str">
+      <c r="R73" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U73" s="4"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5604,15 +5468,13 @@
         <f>IFERROR(VLOOKUP(P74,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="4" t="str">
+      <c r="R74" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U74" s="4"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5648,15 +5510,13 @@
         <f>IFERROR(VLOOKUP(P75,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="4" t="str">
+      <c r="R75" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U75" s="4"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5692,15 +5552,13 @@
         <f>IFERROR(VLOOKUP(P76,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="4" t="str">
+      <c r="R76" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U76" s="4"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5736,15 +5594,13 @@
         <f>IFERROR(VLOOKUP(P77,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="4" t="str">
+      <c r="R77" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U77" s="4"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5780,15 +5636,13 @@
         <f>IFERROR(VLOOKUP(P78,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="4" t="str">
+      <c r="R78" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U78" s="4"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5824,15 +5678,13 @@
         <f>IFERROR(VLOOKUP(P79,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="4" t="str">
+      <c r="R79" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U79" s="4"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5868,15 +5720,13 @@
         <f>IFERROR(VLOOKUP(P80,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="4" t="str">
+      <c r="R80" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U80" s="4"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5912,15 +5762,13 @@
         <f>IFERROR(VLOOKUP(P81,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="4" t="str">
+      <c r="R81" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U81" s="4"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5956,15 +5804,13 @@
         <f>IFERROR(VLOOKUP(P82,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="4" t="str">
+      <c r="R82" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U82" s="4"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6000,15 +5846,13 @@
         <f>IFERROR(VLOOKUP(P83,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="4" t="str">
+      <c r="R83" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U83" s="4"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6044,15 +5888,13 @@
         <f>IFERROR(VLOOKUP(P84,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="4" t="str">
+      <c r="R84" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U84" s="4"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6088,15 +5930,13 @@
         <f>IFERROR(VLOOKUP(P85,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="4" t="str">
+      <c r="R85" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U85" s="4"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6132,15 +5972,13 @@
         <f>IFERROR(VLOOKUP(P86,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="4" t="str">
+      <c r="R86" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U86" s="4"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6176,15 +6014,13 @@
         <f>IFERROR(VLOOKUP(P87,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="4" t="str">
+      <c r="R87" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U87" s="4"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6220,15 +6056,13 @@
         <f>IFERROR(VLOOKUP(P88,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="4" t="str">
+      <c r="R88" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U88" s="4"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6264,15 +6098,13 @@
         <f>IFERROR(VLOOKUP(P89,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="4" t="str">
+      <c r="R89" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U89" s="4"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6308,15 +6140,13 @@
         <f>IFERROR(VLOOKUP(P90,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="4" t="str">
+      <c r="R90" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U90" s="4"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6352,15 +6182,13 @@
         <f>IFERROR(VLOOKUP(P91,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="4" t="str">
+      <c r="R91" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U91" s="4"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6396,15 +6224,13 @@
         <f>IFERROR(VLOOKUP(P92,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="4" t="str">
+      <c r="R92" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U92" s="4"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S92" s="4"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6440,15 +6266,13 @@
         <f>IFERROR(VLOOKUP(P93,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="4" t="str">
+      <c r="R93" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U93" s="4"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6484,15 +6308,13 @@
         <f>IFERROR(VLOOKUP(P94,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="4" t="str">
+      <c r="R94" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U94" s="4"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6528,15 +6350,13 @@
         <f>IFERROR(VLOOKUP(P95,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="4" t="str">
+      <c r="R95" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U95" s="4"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6572,15 +6392,13 @@
         <f>IFERROR(VLOOKUP(P96,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="4" t="str">
+      <c r="R96" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U96" s="4"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S96" s="4"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6616,15 +6434,13 @@
         <f>IFERROR(VLOOKUP(P97,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="4" t="str">
+      <c r="R97" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U97" s="4"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S97" s="4"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6660,15 +6476,13 @@
         <f>IFERROR(VLOOKUP(P98,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="4" t="str">
+      <c r="R98" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U98" s="4"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6704,15 +6518,13 @@
         <f>IFERROR(VLOOKUP(P99,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="4" t="str">
+      <c r="R99" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U99" s="4"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6748,15 +6560,13 @@
         <f>IFERROR(VLOOKUP(P100,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="4" t="str">
+      <c r="R100" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U100" s="4"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S100" s="4"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6792,15 +6602,13 @@
         <f>IFERROR(VLOOKUP(P101,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="4" t="str">
+      <c r="R101" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U101" s="4"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S101" s="4"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6836,15 +6644,13 @@
         <f>IFERROR(VLOOKUP(P102,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="4" t="str">
+      <c r="R102" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U102" s="4"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S102" s="4"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6880,15 +6686,13 @@
         <f>IFERROR(VLOOKUP(P103,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="4" t="str">
+      <c r="R103" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U103" s="4"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S103" s="4"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6924,15 +6728,13 @@
         <f>IFERROR(VLOOKUP(P104,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="4" t="str">
+      <c r="R104" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U104" s="4"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S104" s="4"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6968,15 +6770,13 @@
         <f>IFERROR(VLOOKUP(P105,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="4" t="str">
+      <c r="R105" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U105" s="4"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S105" s="4"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7012,15 +6812,13 @@
         <f>IFERROR(VLOOKUP(P106,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="4" t="str">
+      <c r="R106" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U106" s="4"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S106" s="4"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7056,15 +6854,13 @@
         <f>IFERROR(VLOOKUP(P107,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="4" t="str">
+      <c r="R107" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U107" s="4"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S107" s="4"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7100,15 +6896,13 @@
         <f>IFERROR(VLOOKUP(P108,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="4" t="str">
+      <c r="R108" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U108" s="4"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S108" s="4"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7144,15 +6938,13 @@
         <f>IFERROR(VLOOKUP(P109,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="4" t="str">
+      <c r="R109" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U109" s="4"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S109" s="4"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7188,15 +6980,13 @@
         <f>IFERROR(VLOOKUP(P110,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="4" t="str">
+      <c r="R110" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U110" s="4"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S110" s="4"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7232,15 +7022,13 @@
         <f>IFERROR(VLOOKUP(P111,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="4" t="str">
+      <c r="R111" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U111" s="4"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S111" s="4"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7276,15 +7064,13 @@
         <f>IFERROR(VLOOKUP(P112,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="4" t="str">
+      <c r="R112" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U112" s="4"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S112" s="4"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7320,15 +7106,13 @@
         <f>IFERROR(VLOOKUP(P113,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="4" t="str">
+      <c r="R113" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U113" s="4"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S113" s="4"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7364,15 +7148,13 @@
         <f>IFERROR(VLOOKUP(P114,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="4" t="str">
+      <c r="R114" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U114" s="4"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S114" s="4"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7408,15 +7190,13 @@
         <f>IFERROR(VLOOKUP(P115,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="4" t="str">
+      <c r="R115" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U115" s="4"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S115" s="4"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7452,15 +7232,13 @@
         <f>IFERROR(VLOOKUP(P116,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="4" t="str">
+      <c r="R116" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U116" s="4"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7496,15 +7274,13 @@
         <f>IFERROR(VLOOKUP(P117,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="4" t="str">
+      <c r="R117" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U117" s="4"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7540,15 +7316,13 @@
         <f>IFERROR(VLOOKUP(P118,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="4" t="str">
+      <c r="R118" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U118" s="4"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7584,15 +7358,13 @@
         <f>IFERROR(VLOOKUP(P119,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="4" t="str">
+      <c r="R119" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U119" s="4"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7628,15 +7400,13 @@
         <f>IFERROR(VLOOKUP(P120,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="4" t="str">
+      <c r="R120" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U120" s="4"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7672,15 +7442,13 @@
         <f>IFERROR(VLOOKUP(P121,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="4" t="str">
+      <c r="R121" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U121" s="4"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7716,15 +7484,13 @@
         <f>IFERROR(VLOOKUP(P122,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="4" t="str">
+      <c r="R122" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U122" s="4"/>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S122" s="4"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7760,15 +7526,13 @@
         <f>IFERROR(VLOOKUP(P123,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="4" t="str">
+      <c r="R123" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U123" s="4"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7804,15 +7568,13 @@
         <f>IFERROR(VLOOKUP(P124,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="4" t="str">
+      <c r="R124" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U124" s="4"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S124" s="4"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7848,15 +7610,13 @@
         <f>IFERROR(VLOOKUP(P125,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="4" t="str">
+      <c r="R125" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U125" s="4"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S125" s="4"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7892,15 +7652,13 @@
         <f>IFERROR(VLOOKUP(P126,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="4" t="str">
+      <c r="R126" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U126" s="4"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S126" s="4"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7936,15 +7694,13 @@
         <f>IFERROR(VLOOKUP(P127,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="4" t="str">
+      <c r="R127" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U127" s="4"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S127" s="4"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7980,15 +7736,13 @@
         <f>IFERROR(VLOOKUP(P128,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="4" t="str">
+      <c r="R128" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U128" s="4"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S128" s="4"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8024,15 +7778,13 @@
         <f>IFERROR(VLOOKUP(P129,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="4" t="str">
+      <c r="R129" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U129" s="4"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8068,15 +7820,13 @@
         <f>IFERROR(VLOOKUP(P130,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="4" t="str">
-        <f t="shared" ref="T130:T168" si="13">IF(C130&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C130,"")</f>
-        <v/>
-      </c>
-      <c r="U130" s="4"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R130" s="4" t="str">
+        <f t="shared" ref="R130:R168" si="13">IF(C130&lt;&gt;"","Připojení mikrozdroje EAN " &amp;C130,"")</f>
+        <v/>
+      </c>
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="str">
         <f t="shared" ref="A131:A168" si="14">IF(C131&lt;&gt;"",A130+1,"")</f>
         <v/>
@@ -8112,15 +7862,13 @@
         <f>IFERROR(VLOOKUP(P131,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="4" t="str">
+      <c r="R131" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U131" s="4"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8156,15 +7904,13 @@
         <f>IFERROR(VLOOKUP(P132,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="4" t="str">
+      <c r="R132" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U132" s="4"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8200,15 +7946,13 @@
         <f>IFERROR(VLOOKUP(P133,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="4" t="str">
+      <c r="R133" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U133" s="4"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S133" s="4"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8244,15 +7988,13 @@
         <f>IFERROR(VLOOKUP(P134,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="4" t="str">
+      <c r="R134" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U134" s="4"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S134" s="4"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8288,15 +8030,13 @@
         <f>IFERROR(VLOOKUP(P135,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="4" t="str">
+      <c r="R135" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U135" s="4"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S135" s="4"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8332,15 +8072,13 @@
         <f>IFERROR(VLOOKUP(P136,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="4" t="str">
+      <c r="R136" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U136" s="4"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S136" s="4"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8376,15 +8114,13 @@
         <f>IFERROR(VLOOKUP(P137,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="4" t="str">
+      <c r="R137" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U137" s="4"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S137" s="4"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8420,15 +8156,13 @@
         <f>IFERROR(VLOOKUP(P138,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="4" t="str">
+      <c r="R138" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U138" s="4"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S138" s="4"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8464,15 +8198,13 @@
         <f>IFERROR(VLOOKUP(P139,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="4" t="str">
+      <c r="R139" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U139" s="4"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S139" s="4"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8508,15 +8240,13 @@
         <f>IFERROR(VLOOKUP(P140,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="4" t="str">
+      <c r="R140" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U140" s="4"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S140" s="4"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8552,15 +8282,13 @@
         <f>IFERROR(VLOOKUP(P141,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="4" t="str">
+      <c r="R141" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U141" s="4"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S141" s="4"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8596,15 +8324,13 @@
         <f>IFERROR(VLOOKUP(P142,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="4" t="str">
+      <c r="R142" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U142" s="4"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S142" s="4"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8640,15 +8366,13 @@
         <f>IFERROR(VLOOKUP(P143,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="4" t="str">
+      <c r="R143" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U143" s="4"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S143" s="4"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8684,15 +8408,13 @@
         <f>IFERROR(VLOOKUP(P144,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="4" t="str">
+      <c r="R144" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U144" s="4"/>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S144" s="4"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8728,15 +8450,13 @@
         <f>IFERROR(VLOOKUP(P145,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="4" t="str">
+      <c r="R145" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U145" s="4"/>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S145" s="4"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8772,15 +8492,13 @@
         <f>IFERROR(VLOOKUP(P146,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="4" t="str">
+      <c r="R146" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U146" s="4"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S146" s="4"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8816,15 +8534,13 @@
         <f>IFERROR(VLOOKUP(P147,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="4" t="str">
+      <c r="R147" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U147" s="4"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S147" s="4"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8860,15 +8576,13 @@
         <f>IFERROR(VLOOKUP(P148,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="4" t="str">
+      <c r="R148" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U148" s="4"/>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S148" s="4"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8904,15 +8618,13 @@
         <f>IFERROR(VLOOKUP(P149,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="4" t="str">
+      <c r="R149" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U149" s="4"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S149" s="4"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8948,15 +8660,13 @@
         <f>IFERROR(VLOOKUP(P150,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="4" t="str">
+      <c r="R150" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U150" s="4"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S150" s="4"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8992,15 +8702,13 @@
         <f>IFERROR(VLOOKUP(P151,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="4" t="str">
+      <c r="R151" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U151" s="4"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S151" s="4"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9036,15 +8744,13 @@
         <f>IFERROR(VLOOKUP(P152,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="4" t="str">
+      <c r="R152" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U152" s="4"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S152" s="4"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9080,15 +8786,13 @@
         <f>IFERROR(VLOOKUP(P153,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="4" t="str">
+      <c r="R153" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U153" s="4"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S153" s="4"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9124,15 +8828,13 @@
         <f>IFERROR(VLOOKUP(P154,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="4" t="str">
+      <c r="R154" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U154" s="4"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S154" s="4"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9168,15 +8870,13 @@
         <f>IFERROR(VLOOKUP(P155,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="4" t="str">
+      <c r="R155" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U155" s="4"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S155" s="4"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9212,15 +8912,13 @@
         <f>IFERROR(VLOOKUP(P156,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="4" t="str">
+      <c r="R156" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U156" s="4"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S156" s="4"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9256,15 +8954,13 @@
         <f>IFERROR(VLOOKUP(P157,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="4" t="str">
+      <c r="R157" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U157" s="4"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S157" s="4"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9300,15 +8996,13 @@
         <f>IFERROR(VLOOKUP(P158,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="4" t="str">
+      <c r="R158" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U158" s="4"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S158" s="4"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9344,15 +9038,13 @@
         <f>IFERROR(VLOOKUP(P159,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="4" t="str">
+      <c r="R159" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U159" s="4"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S159" s="4"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9388,15 +9080,13 @@
         <f>IFERROR(VLOOKUP(P160,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="4" t="str">
+      <c r="R160" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U160" s="4"/>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S160" s="4"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9432,15 +9122,13 @@
         <f>IFERROR(VLOOKUP(P161,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="4" t="str">
+      <c r="R161" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U161" s="4"/>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S161" s="4"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9476,15 +9164,13 @@
         <f>IFERROR(VLOOKUP(P162,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="4" t="str">
+      <c r="R162" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U162" s="4"/>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S162" s="4"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9520,15 +9206,13 @@
         <f>IFERROR(VLOOKUP(P163,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="4" t="str">
+      <c r="R163" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U163" s="4"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S163" s="4"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9564,15 +9248,13 @@
         <f>IFERROR(VLOOKUP(P164,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="4" t="str">
+      <c r="R164" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U164" s="4"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S164" s="4"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9608,15 +9290,13 @@
         <f>IFERROR(VLOOKUP(P165,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="4" t="str">
+      <c r="R165" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U165" s="4"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S165" s="4"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9652,15 +9332,13 @@
         <f>IFERROR(VLOOKUP(P166,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="4" t="str">
+      <c r="R166" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U166" s="4"/>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S166" s="4"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9696,15 +9374,13 @@
         <f>IFERROR(VLOOKUP(P167,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="4" t="str">
+      <c r="R167" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U167" s="4"/>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S167" s="4"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9740,13 +9416,11 @@
         <f>IFERROR(VLOOKUP(P168,ciselnik!A:C,3,0),"")</f>
         <v/>
       </c>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="4" t="str">
+      <c r="R168" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U168" s="4"/>
+      <c r="S168" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -9799,30 +9473,30 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" t="s">
         <v>484</v>
-      </c>
-      <c r="F1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="str">
         <f>TRIM(D2)</f>
@@ -9839,16 +9513,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>13410640</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">TRIM(D3)</f>
@@ -9865,16 +9539,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C4">
         <v>13887866</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -9891,10 +9565,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" t="s">
         <v>477</v>
-      </c>
-      <c r="D5" t="s">
-        <v>479</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -9911,16 +9585,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>20459889</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -9937,10 +9611,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9957,16 +9631,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>14236922</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -9983,10 +9657,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -10003,16 +9677,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>14580236</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -10029,16 +9703,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>14925897</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -10055,16 +9729,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>13068478</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -10081,16 +9755,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>14687993</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -10107,10 +9781,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -10127,16 +9801,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -10153,10 +9827,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -10173,10 +9847,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -10193,16 +9867,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C18">
         <v>20586560</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -10219,10 +9893,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -10239,16 +9913,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>20197543</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -10265,10 +9939,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -10285,16 +9959,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>13158435</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -10311,10 +9985,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -10331,16 +10005,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C24">
         <v>20569658</v>
       </c>
       <c r="D24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -10357,16 +10031,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>13487569</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -10383,10 +10057,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -10403,16 +10077,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>14276898</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -10429,10 +10103,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -10449,16 +10123,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>13167391</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -10475,10 +10149,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -10495,16 +10169,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>13250354</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -10521,10 +10195,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -10541,16 +10215,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>14794567</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -10567,16 +10241,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>14330097</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -10593,10 +10267,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -10613,16 +10287,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>15005970</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -10639,10 +10313,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -10659,10 +10333,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -10679,16 +10353,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>13976876</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -10705,16 +10379,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>20463794</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -10731,10 +10405,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -10751,10 +10425,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -10771,16 +10445,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>14522916</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -10797,16 +10471,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>14956312</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -10823,10 +10497,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -10843,16 +10517,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>13865158</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -10869,10 +10543,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -10889,16 +10563,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>20023458</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -10915,16 +10589,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>14740354</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -10941,16 +10615,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>11609476</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -10967,16 +10641,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>10086943</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -10993,16 +10667,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52">
         <v>20157305</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -11019,16 +10693,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>14747138</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -11045,16 +10719,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54">
         <v>10409566</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -11071,16 +10745,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55">
         <v>20392232</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -11097,16 +10771,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56">
         <v>13734568</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -11123,16 +10797,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C57">
         <v>20649077</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -11149,10 +10823,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -11169,16 +10843,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>131</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -11195,10 +10869,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -11215,16 +10889,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61">
         <v>13770876</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -11241,16 +10915,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>10651847</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -11267,16 +10941,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63">
         <v>20138759</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -11293,16 +10967,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>10032639</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -11319,10 +10993,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -11339,16 +11013,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66">
         <v>13384214</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -11365,16 +11039,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C67">
         <v>20519183</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="2">TRIM(D67)</f>
@@ -11391,16 +11065,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68">
         <v>14431947</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -11417,10 +11091,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="2"/>
@@ -11437,16 +11111,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70">
         <v>20081117</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="2"/>
@@ -11463,16 +11137,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71">
         <v>14894164</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="2"/>
@@ -11489,10 +11163,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="2"/>
@@ -11509,16 +11183,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73">
         <v>20364302</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
@@ -11535,16 +11209,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74">
         <v>14451345</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
@@ -11561,16 +11235,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C75">
         <v>20218623</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
@@ -11587,16 +11261,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
         <v>173</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>174</v>
-      </c>
-      <c r="C76" t="s">
-        <v>175</v>
-      </c>
-      <c r="D76" t="s">
-        <v>176</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
@@ -11613,16 +11287,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
         <v>177</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>178</v>
-      </c>
-      <c r="C77" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" t="s">
-        <v>180</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
@@ -11639,16 +11313,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
         <v>181</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>182</v>
-      </c>
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" t="s">
-        <v>184</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
@@ -11665,10 +11339,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
@@ -11685,10 +11359,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
@@ -11705,16 +11379,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81">
         <v>10837000</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
@@ -11731,10 +11405,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" t="s">
         <v>187</v>
-      </c>
-      <c r="D82" t="s">
-        <v>189</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
@@ -11751,10 +11425,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="2"/>
@@ -11771,16 +11445,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>20492089</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="2"/>
@@ -11797,16 +11471,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85">
         <v>14288670</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="2"/>
@@ -11823,16 +11497,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C86">
         <v>14977695</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
@@ -11849,16 +11523,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C87">
         <v>14763266</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
@@ -11875,16 +11549,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88">
         <v>14181431</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
@@ -11901,16 +11575,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C89">
         <v>13509861</v>
       </c>
       <c r="D89" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
@@ -11927,10 +11601,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D90" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
@@ -11947,16 +11621,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C91">
         <v>20616336</v>
       </c>
       <c r="D91" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
@@ -11973,16 +11647,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92">
         <v>13108101</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
@@ -11999,10 +11673,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
@@ -12019,16 +11693,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C94">
         <v>14285259</v>
       </c>
       <c r="D94" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
@@ -12045,10 +11719,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
@@ -12065,16 +11739,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C96">
         <v>14104617</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
@@ -12091,10 +11765,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
@@ -12111,16 +11785,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C98">
         <v>14419640</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
@@ -12137,16 +11811,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99">
         <v>13293018</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
@@ -12163,16 +11837,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C100">
         <v>20507558</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
@@ -12189,16 +11863,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C101">
         <v>14315073</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
@@ -12215,16 +11889,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102">
         <v>13506889</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="2"/>
@@ -12241,16 +11915,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C103">
         <v>20355971</v>
       </c>
       <c r="D103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="2"/>
@@ -12267,16 +11941,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C104">
         <v>13509150</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="2"/>
@@ -12293,16 +11967,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C105">
         <v>20587417</v>
       </c>
       <c r="D105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="2"/>
@@ -12319,16 +11993,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C106">
         <v>14184943</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="2"/>
@@ -12345,10 +12019,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D107" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="2"/>
@@ -12365,16 +12039,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C108">
         <v>14805771</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="2"/>
@@ -12391,16 +12065,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C109">
         <v>20017130</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="2"/>
@@ -12417,10 +12091,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="2"/>
@@ -12437,16 +12111,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
         <v>253</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>254</v>
-      </c>
-      <c r="C111" t="s">
-        <v>255</v>
-      </c>
-      <c r="D111" t="s">
-        <v>256</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="2"/>
@@ -12463,10 +12137,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="2"/>
@@ -12483,16 +12157,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C113">
         <v>14585970</v>
       </c>
       <c r="D113" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="2"/>
@@ -12509,10 +12183,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="2"/>
@@ -12529,16 +12203,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B115" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C115">
         <v>20286625</v>
       </c>
       <c r="D115" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="2"/>
@@ -12555,16 +12229,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C116">
         <v>20465337</v>
       </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="2"/>
@@ -12581,16 +12255,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C117">
         <v>20023456</v>
       </c>
       <c r="D117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="2"/>
@@ -12607,16 +12281,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C118">
         <v>20002077</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="2"/>
@@ -12633,16 +12307,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B119" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C119">
         <v>20593632</v>
       </c>
       <c r="D119" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="2"/>
@@ -12659,16 +12333,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C120">
         <v>14558062</v>
       </c>
       <c r="D120" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="2"/>
@@ -12685,16 +12359,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C121">
         <v>14528429</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="2"/>
@@ -12711,16 +12385,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C122">
         <v>20028121</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="2"/>
@@ -12737,16 +12411,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C123">
         <v>13857597</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="2"/>
@@ -12763,16 +12437,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C124">
         <v>14102314</v>
       </c>
       <c r="D124" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="2"/>
@@ -12789,16 +12463,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C125">
         <v>14542400</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="2"/>
@@ -12815,10 +12489,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="2"/>
@@ -12835,16 +12509,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>288</v>
+      </c>
+      <c r="B127" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" t="s">
         <v>290</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>291</v>
-      </c>
-      <c r="C127" t="s">
-        <v>292</v>
-      </c>
-      <c r="D127" t="s">
-        <v>293</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="2"/>
@@ -12861,16 +12535,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128">
         <v>10029085</v>
       </c>
       <c r="D128" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="2"/>
@@ -12887,16 +12561,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B129" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C129">
         <v>20350565</v>
       </c>
       <c r="D129" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="2"/>
@@ -12913,16 +12587,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C130">
         <v>14585973</v>
       </c>
       <c r="D130" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="2"/>
@@ -12939,16 +12613,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C131">
         <v>20531694</v>
       </c>
       <c r="D131" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E188" si="4">TRIM(D131)</f>
@@ -12965,10 +12639,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="4"/>
@@ -12985,16 +12659,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C133">
         <v>14157941</v>
       </c>
       <c r="D133" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="4"/>
@@ -13011,16 +12685,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C134">
         <v>14100406</v>
       </c>
       <c r="D134" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="4"/>
@@ -13037,16 +12711,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" t="s">
         <v>313</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>314</v>
-      </c>
-      <c r="C135" t="s">
-        <v>315</v>
-      </c>
-      <c r="D135" t="s">
-        <v>316</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="4"/>
@@ -13063,16 +12737,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C136">
         <v>15005969</v>
       </c>
       <c r="D136" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="4"/>
@@ -13089,16 +12763,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B137" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C137">
         <v>13710718</v>
       </c>
       <c r="D137" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="4"/>
@@ -13115,16 +12789,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C138">
         <v>14687997</v>
       </c>
       <c r="D138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="4"/>
@@ -13141,16 +12815,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C139">
         <v>20208419</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="4"/>
@@ -13167,10 +12841,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="4"/>
@@ -13187,16 +12861,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B141" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C141">
         <v>13488347</v>
       </c>
       <c r="D141" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="4"/>
@@ -13213,16 +12887,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B142" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C142">
         <v>14386270</v>
       </c>
       <c r="D142" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="4"/>
@@ -13239,10 +12913,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="4"/>
@@ -13259,10 +12933,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" t="s">
         <v>333</v>
-      </c>
-      <c r="D144" t="s">
-        <v>335</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="4"/>
@@ -13279,10 +12953,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="4"/>
@@ -13299,16 +12973,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C146">
         <v>20508879</v>
       </c>
       <c r="D146" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="4"/>
@@ -13325,16 +12999,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B147" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C147">
         <v>10179768</v>
       </c>
       <c r="D147" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="4"/>
@@ -13351,16 +13025,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B148" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C148">
         <v>11105869</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="4"/>
@@ -13377,16 +13051,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" t="s">
+        <v>342</v>
+      </c>
+      <c r="C149" t="s">
         <v>343</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>344</v>
-      </c>
-      <c r="C149" t="s">
-        <v>345</v>
-      </c>
-      <c r="D149" t="s">
-        <v>346</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="4"/>
@@ -13403,16 +13077,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B150" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C150">
         <v>20051058</v>
       </c>
       <c r="D150" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="4"/>
@@ -13429,10 +13103,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D151" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="4"/>
@@ -13449,16 +13123,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C152">
         <v>14017816</v>
       </c>
       <c r="D152" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="4"/>
@@ -13475,10 +13149,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="4"/>
@@ -13495,16 +13169,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C154">
         <v>14925515</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="4"/>
@@ -13521,16 +13195,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C155">
         <v>14894171</v>
       </c>
       <c r="D155" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="4"/>
@@ -13547,10 +13221,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="4"/>
@@ -13567,10 +13241,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="4"/>
@@ -13587,16 +13261,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B158" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C158">
         <v>20130695</v>
       </c>
       <c r="D158" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="4"/>
@@ -13613,16 +13287,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>364</v>
+      </c>
+      <c r="B159" t="s">
+        <v>365</v>
+      </c>
+      <c r="C159" t="s">
         <v>366</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>367</v>
-      </c>
-      <c r="C159" t="s">
-        <v>368</v>
-      </c>
-      <c r="D159" t="s">
-        <v>369</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="4"/>
@@ -13639,16 +13313,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B160" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C160">
         <v>14799936</v>
       </c>
       <c r="D160" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="4"/>
@@ -13665,16 +13339,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C161">
         <v>13471844</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="4"/>
@@ -13691,16 +13365,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B162" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C162">
         <v>20439220</v>
       </c>
       <c r="D162" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="4"/>
@@ -13717,16 +13391,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B163" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C163">
         <v>20188764</v>
       </c>
       <c r="D163" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="4"/>
@@ -13743,16 +13417,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B164" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C164">
         <v>14977694</v>
       </c>
       <c r="D164" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="4"/>
@@ -13769,16 +13443,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B165" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C165">
         <v>13923150</v>
       </c>
       <c r="D165" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="4"/>
@@ -13795,10 +13469,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="4"/>
@@ -13815,16 +13489,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C167">
         <v>20133690</v>
       </c>
       <c r="D167" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="4"/>
@@ -13841,16 +13515,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B168" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C168">
         <v>13956556</v>
       </c>
       <c r="D168" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="4"/>
@@ -13867,16 +13541,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B169" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C169">
         <v>13512683</v>
       </c>
       <c r="D169" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="4"/>
@@ -13893,16 +13567,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>396</v>
+      </c>
+      <c r="B170" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" t="s">
         <v>398</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>399</v>
-      </c>
-      <c r="C170" t="s">
-        <v>400</v>
-      </c>
-      <c r="D170" t="s">
-        <v>401</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="4"/>
@@ -13919,16 +13593,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B171" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C171">
         <v>13093479</v>
       </c>
       <c r="D171" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="4"/>
@@ -13945,10 +13619,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="4"/>
@@ -13965,16 +13639,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C173">
         <v>14739430</v>
       </c>
       <c r="D173" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="4"/>
@@ -13991,16 +13665,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>407</v>
+      </c>
+      <c r="B174" t="s">
+        <v>408</v>
+      </c>
+      <c r="C174" t="s">
         <v>409</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>410</v>
-      </c>
-      <c r="C174" t="s">
-        <v>411</v>
-      </c>
-      <c r="D174" t="s">
-        <v>412</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="4"/>
@@ -14017,10 +13691,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D175" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="4"/>
@@ -14037,16 +13711,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B176" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C176">
         <v>14915896</v>
       </c>
       <c r="D176" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="4"/>
@@ -14063,16 +13737,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B177" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C177">
         <v>10033196</v>
       </c>
       <c r="D177" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="4"/>
@@ -14089,16 +13763,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C178">
         <v>13840023</v>
       </c>
       <c r="D178" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="4"/>
@@ -14115,16 +13789,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B179" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C179">
         <v>10135035</v>
       </c>
       <c r="D179" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="4"/>
@@ -14141,16 +13815,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B180" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C180">
         <v>10027194</v>
       </c>
       <c r="D180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="4"/>
@@ -14167,16 +13841,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B181" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C181">
         <v>14121514</v>
       </c>
       <c r="D181" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="4"/>
@@ -14193,16 +13867,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C182">
         <v>14169561</v>
       </c>
       <c r="D182" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="4"/>
@@ -14219,10 +13893,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D183" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="4"/>
@@ -14239,16 +13913,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C184">
         <v>10135014</v>
       </c>
       <c r="D184" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="4"/>
@@ -14265,16 +13939,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>437</v>
+      </c>
+      <c r="B185" t="s">
+        <v>438</v>
+      </c>
+      <c r="C185" t="s">
         <v>439</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>440</v>
-      </c>
-      <c r="C185" t="s">
-        <v>441</v>
-      </c>
-      <c r="D185" t="s">
-        <v>442</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="4"/>
@@ -14291,16 +13965,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>441</v>
+      </c>
+      <c r="B186" t="s">
+        <v>442</v>
+      </c>
+      <c r="C186" t="s">
         <v>443</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>444</v>
-      </c>
-      <c r="C186" t="s">
-        <v>445</v>
-      </c>
-      <c r="D186" t="s">
-        <v>446</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="4"/>
@@ -14317,16 +13991,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>445</v>
+      </c>
+      <c r="B187" t="s">
+        <v>446</v>
+      </c>
+      <c r="C187" t="s">
         <v>447</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
         <v>448</v>
-      </c>
-      <c r="C187" t="s">
-        <v>449</v>
-      </c>
-      <c r="D187" t="s">
-        <v>450</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="4"/>
@@ -14343,16 +14017,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C188">
         <v>14139283</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="4"/>
@@ -14400,1594 +14074,1594 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F2">
         <v>50000821</v>
       </c>
       <c r="G2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F3">
         <v>60000821</v>
       </c>
       <c r="G3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F4">
         <v>40000821</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F5">
         <v>70000821</v>
       </c>
       <c r="G5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F6">
         <v>80000821</v>
       </c>
       <c r="G6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="M8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
         <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
         <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
         <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
         <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
         <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
         <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
         <v>137</v>
-      </c>
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
         <v>147</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
         <v>150</v>
-      </c>
-      <c r="B43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
         <v>157</v>
-      </c>
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
         <v>164</v>
-      </c>
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
         <v>170</v>
-      </c>
-      <c r="B49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
         <v>174</v>
-      </c>
-      <c r="C50" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
         <v>178</v>
-      </c>
-      <c r="C51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
         <v>191</v>
-      </c>
-      <c r="B54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" t="s">
         <v>194</v>
-      </c>
-      <c r="B55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" t="s">
         <v>197</v>
-      </c>
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" t="s">
         <v>200</v>
-      </c>
-      <c r="B57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
         <v>203</v>
-      </c>
-      <c r="B58" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C60" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
         <v>218</v>
-      </c>
-      <c r="B64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" t="s">
         <v>221</v>
-      </c>
-      <c r="B65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" t="s">
         <v>224</v>
-      </c>
-      <c r="B66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
         <v>227</v>
-      </c>
-      <c r="B67" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
         <v>230</v>
-      </c>
-      <c r="B68" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
         <v>233</v>
-      </c>
-      <c r="B69" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
         <v>236</v>
-      </c>
-      <c r="B70" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" t="s">
         <v>246</v>
-      </c>
-      <c r="B73" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>452</v>
+      </c>
+      <c r="B77" t="s">
+        <v>453</v>
+      </c>
+      <c r="C77" t="s">
         <v>454</v>
-      </c>
-      <c r="B77" t="s">
-        <v>455</v>
-      </c>
-      <c r="C77" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
         <v>262</v>
-      </c>
-      <c r="B78" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" t="s">
         <v>265</v>
-      </c>
-      <c r="B79" t="s">
-        <v>266</v>
-      </c>
-      <c r="C79" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
         <v>268</v>
-      </c>
-      <c r="B80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" t="s">
+        <v>466</v>
+      </c>
+      <c r="C81" t="s">
         <v>467</v>
-      </c>
-      <c r="B81" t="s">
-        <v>468</v>
-      </c>
-      <c r="C81" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" t="s">
         <v>271</v>
-      </c>
-      <c r="B82" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>272</v>
+      </c>
+      <c r="B83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" t="s">
         <v>274</v>
-      </c>
-      <c r="B83" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" t="s">
         <v>277</v>
-      </c>
-      <c r="B84" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" t="s">
         <v>280</v>
-      </c>
-      <c r="B85" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" t="s">
         <v>283</v>
-      </c>
-      <c r="B86" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" t="s">
         <v>291</v>
-      </c>
-      <c r="C88" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" t="s">
         <v>294</v>
-      </c>
-      <c r="B89" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" t="s">
         <v>297</v>
-      </c>
-      <c r="B90" t="s">
-        <v>298</v>
-      </c>
-      <c r="C90" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" t="s">
         <v>300</v>
-      </c>
-      <c r="B91" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>305</v>
+      </c>
+      <c r="B93" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" t="s">
         <v>307</v>
-      </c>
-      <c r="B93" t="s">
-        <v>308</v>
-      </c>
-      <c r="C93" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" t="s">
         <v>310</v>
-      </c>
-      <c r="B94" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" t="s">
         <v>314</v>
-      </c>
-      <c r="C95" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>315</v>
+      </c>
+      <c r="B96" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" t="s">
         <v>317</v>
-      </c>
-      <c r="B96" t="s">
-        <v>318</v>
-      </c>
-      <c r="C96" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C99" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>458</v>
+      </c>
+      <c r="B102" t="s">
+        <v>459</v>
+      </c>
+      <c r="C102" t="s">
         <v>460</v>
-      </c>
-      <c r="B102" t="s">
-        <v>461</v>
-      </c>
-      <c r="C102" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" t="s">
         <v>337</v>
-      </c>
-      <c r="B103" t="s">
-        <v>338</v>
-      </c>
-      <c r="C103" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" t="s">
+        <v>339</v>
+      </c>
+      <c r="C104" t="s">
         <v>340</v>
-      </c>
-      <c r="B104" t="s">
-        <v>341</v>
-      </c>
-      <c r="C104" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" t="s">
         <v>344</v>
-      </c>
-      <c r="C105" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C106" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C107" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" t="s">
         <v>355</v>
-      </c>
-      <c r="B108" t="s">
-        <v>356</v>
-      </c>
-      <c r="C108" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C109" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>361</v>
+      </c>
+      <c r="B110" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" t="s">
         <v>363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B111" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" t="s">
         <v>367</v>
-      </c>
-      <c r="C111" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112" t="s">
         <v>370</v>
-      </c>
-      <c r="B112" t="s">
-        <v>371</v>
-      </c>
-      <c r="C112" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" t="s">
         <v>373</v>
-      </c>
-      <c r="B113" t="s">
-        <v>374</v>
-      </c>
-      <c r="C113" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" t="s">
         <v>376</v>
-      </c>
-      <c r="B114" t="s">
-        <v>377</v>
-      </c>
-      <c r="C114" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>377</v>
+      </c>
+      <c r="B115" t="s">
+        <v>378</v>
+      </c>
+      <c r="C115" t="s">
         <v>379</v>
-      </c>
-      <c r="B115" t="s">
-        <v>380</v>
-      </c>
-      <c r="C115" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" t="s">
         <v>382</v>
-      </c>
-      <c r="B116" t="s">
-        <v>383</v>
-      </c>
-      <c r="C116" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C117" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" t="s">
+        <v>388</v>
+      </c>
+      <c r="C118" t="s">
         <v>389</v>
-      </c>
-      <c r="B118" t="s">
-        <v>390</v>
-      </c>
-      <c r="C118" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C119" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C120" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B121" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121" t="s">
         <v>399</v>
-      </c>
-      <c r="C121" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C122" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>404</v>
+      </c>
+      <c r="B123" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" t="s">
         <v>406</v>
-      </c>
-      <c r="B123" t="s">
-        <v>407</v>
-      </c>
-      <c r="C123" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B124" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>412</v>
+      </c>
+      <c r="B125" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" t="s">
         <v>414</v>
-      </c>
-      <c r="B125" t="s">
-        <v>415</v>
-      </c>
-      <c r="C125" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" t="s">
         <v>417</v>
-      </c>
-      <c r="B126" t="s">
-        <v>418</v>
-      </c>
-      <c r="C126" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>418</v>
+      </c>
+      <c r="B127" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" t="s">
         <v>420</v>
-      </c>
-      <c r="B127" t="s">
-        <v>421</v>
-      </c>
-      <c r="C127" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>421</v>
+      </c>
+      <c r="B128" t="s">
+        <v>422</v>
+      </c>
+      <c r="C128" t="s">
         <v>423</v>
-      </c>
-      <c r="B128" t="s">
-        <v>424</v>
-      </c>
-      <c r="C128" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" t="s">
         <v>426</v>
-      </c>
-      <c r="B129" t="s">
-        <v>427</v>
-      </c>
-      <c r="C129" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>427</v>
+      </c>
+      <c r="B130" t="s">
+        <v>428</v>
+      </c>
+      <c r="C130" t="s">
         <v>429</v>
-      </c>
-      <c r="B130" t="s">
-        <v>430</v>
-      </c>
-      <c r="C130" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C131" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" t="s">
         <v>436</v>
-      </c>
-      <c r="B132" t="s">
-        <v>437</v>
-      </c>
-      <c r="C132" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B133" t="s">
+        <v>438</v>
+      </c>
+      <c r="C133" t="s">
         <v>440</v>
-      </c>
-      <c r="C133" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B134" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C134" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C135" t="s">
         <v>448</v>
-      </c>
-      <c r="C135" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>449</v>
+      </c>
+      <c r="B136" t="s">
+        <v>450</v>
+      </c>
+      <c r="C136" t="s">
         <v>451</v>
-      </c>
-      <c r="B136" t="s">
-        <v>452</v>
-      </c>
-      <c r="C136" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -15999,7 +15673,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E41FD-B4E9-444B-A54C-D5ADAA997815}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="str">
+        <f>""""&amp; A1 &amp;": " &amp;""""&amp; "&amp; out_DictionaryValues("""&amp;A1&amp;""""&amp;").ToString" &amp; " &amp; vbcrlf &amp;"</f>
+        <v>"author: "&amp; out_DictionaryValues("author").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B18" si="0">""""&amp; A2 &amp;": " &amp;""""&amp; "&amp; out_DictionaryValues("""&amp;A2&amp;""""&amp;").ToString" &amp; " &amp; vbcrlf &amp;"</f>
+        <v>"ean: "&amp; out_DictionaryValues("ean").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"kontaktPPP: "&amp; out_DictionaryValues("kontaktPPP").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"cisloZOP: "&amp; out_DictionaryValues("cisloZOP").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>"mistoSpotreby: "&amp; out_DictionaryValues("mistoSpotreby").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>"umisteniPristroje: "&amp; out_DictionaryValues("umisteniPristroje").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>"cisloOdbernehoMistaDistr: "&amp; out_DictionaryValues("cisloOdbernehoMistaDistr").ToString &amp; vbcrlf &amp;</v>
+      </c>
+      <c r="D7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>"oznaceniSmluvnihoUctu: "&amp; out_DictionaryValues("oznaceniSmluvnihoUctu").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>"reas: "&amp; out_DictionaryValues("reas").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>"datumPrihlaseni: "&amp; out_DictionaryValues("datumPrihlaseni").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>"odectovaJednotka: "&amp; out_DictionaryValues("odectovaJednotka").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>"typProvozuVyrobny: "&amp; out_DictionaryValues("typProvozuVyrobny").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>"resitelKontaktu: "&amp; out_DictionaryValues("resitelKontaktu").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>"poznamka: "&amp; out_DictionaryValues("poznamka").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>"obchodnik: "&amp; out_DictionaryValues("obchodnik").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>"obchodnikEmail: "&amp; out_DictionaryValues("obchodnikEmail").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>"emailPredmet: "&amp; out_DictionaryValues("emailPredmet").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>"kontaktniTelefon: "&amp; out_DictionaryValues("kontaktniTelefon").ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -16202,15 +16069,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16218,13 +16076,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
+    <ds:schemaRef ds:uri="15216789-4c43-43b8-8f31-b3ff70bf4c88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDE406-0337-4B69-83F1-868E6D11E866}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7090861-9CB5-4878-84AF-6E6309ED1C4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="611">
   <si>
     <t>No.</t>
   </si>
@@ -1835,6 +1835,48 @@
   </si>
   <si>
     <t>cisloZOP</t>
+  </si>
+  <si>
+    <t>stav procesu 1</t>
+  </si>
+  <si>
+    <t>stav procesu2</t>
+  </si>
+  <si>
+    <t>stav procesu3</t>
+  </si>
+  <si>
+    <t>Doplnění1</t>
+  </si>
+  <si>
+    <t>Doplněni 2</t>
+  </si>
+  <si>
+    <t>doplneni 3</t>
+  </si>
+  <si>
+    <t>doplneni 4</t>
+  </si>
+  <si>
+    <t>Jméno + příjmení</t>
+  </si>
+  <si>
+    <t>Adresa</t>
+  </si>
+  <si>
+    <t>Datum narození</t>
+  </si>
+  <si>
+    <t>Číslo OP</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Výsledek zpracování</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1888,8 +1930,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1912,12 +1966,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1939,6 +2004,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -2237,10 +2308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:S168"/>
+  <dimension ref="A1:AH168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="A1:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,9 +2334,12 @@
     <col min="17" max="17" width="41" customWidth="1"/>
     <col min="18" max="18" width="34.5703125" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2323,8 +2397,51 @@
       <c r="S1" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH1" s="18"/>
+    </row>
+    <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(C2&lt;&gt;"",1,"")</f>
         <v>1</v>
@@ -2389,8 +2506,23 @@
       <c r="S2" s="6">
         <v>777875678</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+    </row>
+    <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(C3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
@@ -2455,8 +2587,23 @@
       <c r="S3" s="6">
         <v>603283816</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+    </row>
+    <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A8" si="2">IF(C4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
@@ -2521,8 +2668,23 @@
       <c r="S4" s="6">
         <v>777232251</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+    </row>
+    <row r="5" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2587,8 +2749,23 @@
       <c r="S5" s="6">
         <v>606655037</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+    </row>
+    <row r="6" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2653,8 +2830,23 @@
       <c r="S6" s="6">
         <v>603781363</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+    </row>
+    <row r="7" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2677,8 +2869,23 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2701,8 +2908,23 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(C9&lt;&gt;"",#REF!+1,"")</f>
         <v/>
@@ -2743,8 +2965,23 @@
         <v/>
       </c>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" ref="A10:A66" si="5">IF(C10&lt;&gt;"",A9+1,"")</f>
         <v/>
@@ -2785,8 +3022,23 @@
         <v/>
       </c>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2827,8 +3079,23 @@
         <v/>
       </c>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2869,8 +3136,23 @@
         <v/>
       </c>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2911,8 +3193,23 @@
         <v/>
       </c>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2953,8 +3250,23 @@
         <v/>
       </c>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2995,8 +3307,23 @@
         <v/>
       </c>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3037,8 +3364,23 @@
         <v/>
       </c>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3079,8 +3421,23 @@
         <v/>
       </c>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3121,8 +3478,23 @@
         <v/>
       </c>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3163,8 +3535,23 @@
         <v/>
       </c>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3205,8 +3592,23 @@
         <v/>
       </c>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3247,8 +3649,23 @@
         <v/>
       </c>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3289,8 +3706,23 @@
         <v/>
       </c>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3331,8 +3763,23 @@
         <v/>
       </c>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3373,8 +3820,23 @@
         <v/>
       </c>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3415,8 +3877,23 @@
         <v/>
       </c>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3457,8 +3934,23 @@
         <v/>
       </c>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3499,8 +3991,23 @@
         <v/>
       </c>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3541,8 +4048,23 @@
         <v/>
       </c>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3583,8 +4105,23 @@
         <v/>
       </c>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3625,8 +4162,23 @@
         <v/>
       </c>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3667,8 +4219,23 @@
         <v/>
       </c>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3709,8 +4276,23 @@
         <v/>
       </c>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3751,8 +4333,23 @@
         <v/>
       </c>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3793,8 +4390,23 @@
         <v/>
       </c>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3835,8 +4447,23 @@
         <v/>
       </c>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3877,8 +4504,23 @@
         <v/>
       </c>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3919,8 +4561,23 @@
         <v/>
       </c>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3961,8 +4618,23 @@
         <v/>
       </c>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4003,8 +4675,23 @@
         <v/>
       </c>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4045,8 +4732,23 @@
         <v/>
       </c>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4087,8 +4789,23 @@
         <v/>
       </c>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4129,8 +4846,23 @@
         <v/>
       </c>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4171,8 +4903,23 @@
         <v/>
       </c>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4213,8 +4960,23 @@
         <v/>
       </c>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4255,8 +5017,23 @@
         <v/>
       </c>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4297,8 +5074,23 @@
         <v/>
       </c>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4339,8 +5131,23 @@
         <v/>
       </c>
       <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4381,8 +5188,23 @@
         <v/>
       </c>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4423,8 +5245,23 @@
         <v/>
       </c>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4465,8 +5302,23 @@
         <v/>
       </c>
       <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4507,8 +5359,23 @@
         <v/>
       </c>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4549,8 +5416,23 @@
         <v/>
       </c>
       <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4591,8 +5473,23 @@
         <v/>
       </c>
       <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4633,8 +5530,23 @@
         <v/>
       </c>
       <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4675,8 +5587,23 @@
         <v/>
       </c>
       <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4717,8 +5644,23 @@
         <v/>
       </c>
       <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4759,8 +5701,23 @@
         <v/>
       </c>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4801,8 +5758,23 @@
         <v/>
       </c>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4843,8 +5815,23 @@
         <v/>
       </c>
       <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
+      <c r="AH59" s="20"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4885,8 +5872,23 @@
         <v/>
       </c>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
+      <c r="AH60" s="20"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4927,8 +5929,23 @@
         <v/>
       </c>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
+      <c r="AH61" s="20"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4969,8 +5986,23 @@
         <v/>
       </c>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5011,8 +6043,23 @@
         <v/>
       </c>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="20"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5053,8 +6100,23 @@
         <v/>
       </c>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5095,8 +6157,23 @@
         <v/>
       </c>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="20"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5137,8 +6214,23 @@
         <v/>
       </c>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" ref="A67:A130" si="10">IF(C67&lt;&gt;"",A66+1,"")</f>
         <v/>
@@ -5179,8 +6271,23 @@
         <v/>
       </c>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5221,8 +6328,23 @@
         <v/>
       </c>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5263,8 +6385,23 @@
         <v/>
       </c>
       <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5305,8 +6442,23 @@
         <v/>
       </c>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="20"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5347,8 +6499,23 @@
         <v/>
       </c>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5389,8 +6556,23 @@
         <v/>
       </c>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="20"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5431,8 +6613,23 @@
         <v/>
       </c>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5473,8 +6670,23 @@
         <v/>
       </c>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5515,8 +6727,23 @@
         <v/>
       </c>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5557,8 +6784,23 @@
         <v/>
       </c>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="20"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5599,8 +6841,23 @@
         <v/>
       </c>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="20"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5641,8 +6898,23 @@
         <v/>
       </c>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5683,8 +6955,23 @@
         <v/>
       </c>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="20"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5725,8 +7012,23 @@
         <v/>
       </c>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="20"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5767,8 +7069,23 @@
         <v/>
       </c>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5809,8 +7126,23 @@
         <v/>
       </c>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5851,8 +7183,23 @@
         <v/>
       </c>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5893,8 +7240,23 @@
         <v/>
       </c>
       <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="20"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5935,8 +7297,23 @@
         <v/>
       </c>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -5977,8 +7354,23 @@
         <v/>
       </c>
       <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="20"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6019,8 +7411,23 @@
         <v/>
       </c>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+      <c r="AH87" s="20"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6061,8 +7468,23 @@
         <v/>
       </c>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="20"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6103,8 +7525,23 @@
         <v/>
       </c>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6145,8 +7582,23 @@
         <v/>
       </c>
       <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="20"/>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="20"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6187,8 +7639,23 @@
         <v/>
       </c>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="20"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="20"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6229,8 +7696,23 @@
         <v/>
       </c>
       <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="20"/>
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="20"/>
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="20"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6271,8 +7753,23 @@
         <v/>
       </c>
       <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="20"/>
+      <c r="AB93" s="20"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="20"/>
+      <c r="AE93" s="20"/>
+      <c r="AF93" s="20"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="20"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6313,8 +7810,23 @@
         <v/>
       </c>
       <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
+      <c r="AA94" s="20"/>
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="20"/>
+      <c r="AD94" s="20"/>
+      <c r="AE94" s="20"/>
+      <c r="AF94" s="20"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="20"/>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6355,8 +7867,23 @@
         <v/>
       </c>
       <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
+      <c r="AA95" s="20"/>
+      <c r="AB95" s="20"/>
+      <c r="AC95" s="20"/>
+      <c r="AD95" s="20"/>
+      <c r="AE95" s="20"/>
+      <c r="AF95" s="20"/>
+      <c r="AG95" s="20"/>
+      <c r="AH95" s="20"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6397,8 +7924,23 @@
         <v/>
       </c>
       <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="20"/>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="20"/>
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="20"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6439,8 +7981,23 @@
         <v/>
       </c>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6481,8 +8038,23 @@
         <v/>
       </c>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+      <c r="AA98" s="20"/>
+      <c r="AB98" s="20"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="20"/>
+      <c r="AE98" s="20"/>
+      <c r="AF98" s="20"/>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="20"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6523,8 +8095,23 @@
         <v/>
       </c>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+      <c r="AA99" s="20"/>
+      <c r="AB99" s="20"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="20"/>
+      <c r="AE99" s="20"/>
+      <c r="AF99" s="20"/>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="20"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6565,8 +8152,23 @@
         <v/>
       </c>
       <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="20"/>
+      <c r="AB100" s="20"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="20"/>
+      <c r="AE100" s="20"/>
+      <c r="AF100" s="20"/>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="20"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6607,8 +8209,23 @@
         <v/>
       </c>
       <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
+      <c r="AA101" s="20"/>
+      <c r="AB101" s="20"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="20"/>
+      <c r="AE101" s="20"/>
+      <c r="AF101" s="20"/>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="20"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6649,8 +8266,23 @@
         <v/>
       </c>
       <c r="S102" s="4"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="20"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="20"/>
+      <c r="AE102" s="20"/>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="20"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6691,8 +8323,23 @@
         <v/>
       </c>
       <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="20"/>
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="20"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6733,8 +8380,23 @@
         <v/>
       </c>
       <c r="S104" s="4"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="20"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="20"/>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6775,8 +8437,23 @@
         <v/>
       </c>
       <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="20"/>
+      <c r="W105" s="20"/>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="20"/>
+      <c r="AA105" s="20"/>
+      <c r="AB105" s="20"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="20"/>
+      <c r="AE105" s="20"/>
+      <c r="AF105" s="20"/>
+      <c r="AG105" s="20"/>
+      <c r="AH105" s="20"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6817,8 +8494,23 @@
         <v/>
       </c>
       <c r="S106" s="4"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
+      <c r="AA106" s="20"/>
+      <c r="AB106" s="20"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="20"/>
+      <c r="AE106" s="20"/>
+      <c r="AF106" s="20"/>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="20"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6859,8 +8551,23 @@
         <v/>
       </c>
       <c r="S107" s="4"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6901,8 +8608,23 @@
         <v/>
       </c>
       <c r="S108" s="4"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="20"/>
+      <c r="AB108" s="20"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="20"/>
+      <c r="AE108" s="20"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6943,8 +8665,23 @@
         <v/>
       </c>
       <c r="S109" s="4"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
+      <c r="AA109" s="20"/>
+      <c r="AB109" s="20"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="20"/>
+      <c r="AE109" s="20"/>
+      <c r="AF109" s="20"/>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="20"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6985,8 +8722,23 @@
         <v/>
       </c>
       <c r="S110" s="4"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+      <c r="AA110" s="20"/>
+      <c r="AB110" s="20"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="20"/>
+      <c r="AE110" s="20"/>
+      <c r="AF110" s="20"/>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="20"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7027,8 +8779,23 @@
         <v/>
       </c>
       <c r="S111" s="4"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
+      <c r="AA111" s="20"/>
+      <c r="AB111" s="20"/>
+      <c r="AC111" s="20"/>
+      <c r="AD111" s="20"/>
+      <c r="AE111" s="20"/>
+      <c r="AF111" s="20"/>
+      <c r="AG111" s="20"/>
+      <c r="AH111" s="20"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7069,8 +8836,23 @@
         <v/>
       </c>
       <c r="S112" s="4"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="20"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7111,8 +8893,23 @@
         <v/>
       </c>
       <c r="S113" s="4"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="20"/>
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="20"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7153,8 +8950,23 @@
         <v/>
       </c>
       <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+      <c r="W114" s="20"/>
+      <c r="X114" s="20"/>
+      <c r="Y114" s="20"/>
+      <c r="Z114" s="20"/>
+      <c r="AA114" s="20"/>
+      <c r="AB114" s="20"/>
+      <c r="AC114" s="20"/>
+      <c r="AD114" s="20"/>
+      <c r="AE114" s="20"/>
+      <c r="AF114" s="20"/>
+      <c r="AG114" s="20"/>
+      <c r="AH114" s="20"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7195,8 +9007,23 @@
         <v/>
       </c>
       <c r="S115" s="4"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="20"/>
+      <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="20"/>
+      <c r="AA115" s="20"/>
+      <c r="AB115" s="20"/>
+      <c r="AC115" s="20"/>
+      <c r="AD115" s="20"/>
+      <c r="AE115" s="20"/>
+      <c r="AF115" s="20"/>
+      <c r="AG115" s="20"/>
+      <c r="AH115" s="20"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7237,8 +9064,23 @@
         <v/>
       </c>
       <c r="S116" s="4"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="20"/>
+      <c r="AA116" s="20"/>
+      <c r="AB116" s="20"/>
+      <c r="AC116" s="20"/>
+      <c r="AD116" s="20"/>
+      <c r="AE116" s="20"/>
+      <c r="AF116" s="20"/>
+      <c r="AG116" s="20"/>
+      <c r="AH116" s="20"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7279,8 +9121,23 @@
         <v/>
       </c>
       <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="20"/>
+      <c r="Z117" s="20"/>
+      <c r="AA117" s="20"/>
+      <c r="AB117" s="20"/>
+      <c r="AC117" s="20"/>
+      <c r="AD117" s="20"/>
+      <c r="AE117" s="20"/>
+      <c r="AF117" s="20"/>
+      <c r="AG117" s="20"/>
+      <c r="AH117" s="20"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7321,8 +9178,23 @@
         <v/>
       </c>
       <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="20"/>
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="20"/>
+      <c r="AA118" s="20"/>
+      <c r="AB118" s="20"/>
+      <c r="AC118" s="20"/>
+      <c r="AD118" s="20"/>
+      <c r="AE118" s="20"/>
+      <c r="AF118" s="20"/>
+      <c r="AG118" s="20"/>
+      <c r="AH118" s="20"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7363,8 +9235,23 @@
         <v/>
       </c>
       <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="20"/>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="20"/>
+      <c r="AA119" s="20"/>
+      <c r="AB119" s="20"/>
+      <c r="AC119" s="20"/>
+      <c r="AD119" s="20"/>
+      <c r="AE119" s="20"/>
+      <c r="AF119" s="20"/>
+      <c r="AG119" s="20"/>
+      <c r="AH119" s="20"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7405,8 +9292,23 @@
         <v/>
       </c>
       <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="20"/>
+      <c r="AA120" s="20"/>
+      <c r="AB120" s="20"/>
+      <c r="AC120" s="20"/>
+      <c r="AD120" s="20"/>
+      <c r="AE120" s="20"/>
+      <c r="AF120" s="20"/>
+      <c r="AG120" s="20"/>
+      <c r="AH120" s="20"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7447,8 +9349,23 @@
         <v/>
       </c>
       <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="20"/>
+      <c r="AA121" s="20"/>
+      <c r="AB121" s="20"/>
+      <c r="AC121" s="20"/>
+      <c r="AD121" s="20"/>
+      <c r="AE121" s="20"/>
+      <c r="AF121" s="20"/>
+      <c r="AG121" s="20"/>
+      <c r="AH121" s="20"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7489,8 +9406,23 @@
         <v/>
       </c>
       <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="20"/>
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="20"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7531,8 +9463,23 @@
         <v/>
       </c>
       <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+      <c r="AA123" s="20"/>
+      <c r="AB123" s="20"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="20"/>
+      <c r="AE123" s="20"/>
+      <c r="AF123" s="20"/>
+      <c r="AG123" s="20"/>
+      <c r="AH123" s="20"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7573,8 +9520,23 @@
         <v/>
       </c>
       <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+      <c r="AA124" s="20"/>
+      <c r="AB124" s="20"/>
+      <c r="AC124" s="20"/>
+      <c r="AD124" s="20"/>
+      <c r="AE124" s="20"/>
+      <c r="AF124" s="20"/>
+      <c r="AG124" s="20"/>
+      <c r="AH124" s="20"/>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7615,8 +9577,23 @@
         <v/>
       </c>
       <c r="S125" s="4"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="20"/>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+      <c r="AA125" s="20"/>
+      <c r="AB125" s="20"/>
+      <c r="AC125" s="20"/>
+      <c r="AD125" s="20"/>
+      <c r="AE125" s="20"/>
+      <c r="AF125" s="20"/>
+      <c r="AG125" s="20"/>
+      <c r="AH125" s="20"/>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7657,8 +9634,23 @@
         <v/>
       </c>
       <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="20"/>
+      <c r="AC126" s="20"/>
+      <c r="AD126" s="20"/>
+      <c r="AE126" s="20"/>
+      <c r="AF126" s="20"/>
+      <c r="AG126" s="20"/>
+      <c r="AH126" s="20"/>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7699,8 +9691,23 @@
         <v/>
       </c>
       <c r="S127" s="4"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="20"/>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+      <c r="AA127" s="20"/>
+      <c r="AB127" s="20"/>
+      <c r="AC127" s="20"/>
+      <c r="AD127" s="20"/>
+      <c r="AE127" s="20"/>
+      <c r="AF127" s="20"/>
+      <c r="AG127" s="20"/>
+      <c r="AH127" s="20"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7741,8 +9748,23 @@
         <v/>
       </c>
       <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+      <c r="V128" s="20"/>
+      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="20"/>
+      <c r="AA128" s="20"/>
+      <c r="AB128" s="20"/>
+      <c r="AC128" s="20"/>
+      <c r="AD128" s="20"/>
+      <c r="AE128" s="20"/>
+      <c r="AF128" s="20"/>
+      <c r="AG128" s="20"/>
+      <c r="AH128" s="20"/>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7783,8 +9805,23 @@
         <v/>
       </c>
       <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T129" s="20"/>
+      <c r="U129" s="20"/>
+      <c r="V129" s="20"/>
+      <c r="W129" s="20"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="20"/>
+      <c r="AA129" s="20"/>
+      <c r="AB129" s="20"/>
+      <c r="AC129" s="20"/>
+      <c r="AD129" s="20"/>
+      <c r="AE129" s="20"/>
+      <c r="AF129" s="20"/>
+      <c r="AG129" s="20"/>
+      <c r="AH129" s="20"/>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7825,8 +9862,23 @@
         <v/>
       </c>
       <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T130" s="20"/>
+      <c r="U130" s="20"/>
+      <c r="V130" s="20"/>
+      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="20"/>
+      <c r="Z130" s="20"/>
+      <c r="AA130" s="20"/>
+      <c r="AB130" s="20"/>
+      <c r="AC130" s="20"/>
+      <c r="AD130" s="20"/>
+      <c r="AE130" s="20"/>
+      <c r="AF130" s="20"/>
+      <c r="AG130" s="20"/>
+      <c r="AH130" s="20"/>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="str">
         <f t="shared" ref="A131:A168" si="14">IF(C131&lt;&gt;"",A130+1,"")</f>
         <v/>
@@ -7867,8 +9919,23 @@
         <v/>
       </c>
       <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T131" s="20"/>
+      <c r="U131" s="20"/>
+      <c r="V131" s="20"/>
+      <c r="W131" s="20"/>
+      <c r="X131" s="20"/>
+      <c r="Y131" s="20"/>
+      <c r="Z131" s="20"/>
+      <c r="AA131" s="20"/>
+      <c r="AB131" s="20"/>
+      <c r="AC131" s="20"/>
+      <c r="AD131" s="20"/>
+      <c r="AE131" s="20"/>
+      <c r="AF131" s="20"/>
+      <c r="AG131" s="20"/>
+      <c r="AH131" s="20"/>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -7909,8 +9976,23 @@
         <v/>
       </c>
       <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T132" s="20"/>
+      <c r="U132" s="20"/>
+      <c r="V132" s="20"/>
+      <c r="W132" s="20"/>
+      <c r="X132" s="20"/>
+      <c r="Y132" s="20"/>
+      <c r="Z132" s="20"/>
+      <c r="AA132" s="20"/>
+      <c r="AB132" s="20"/>
+      <c r="AC132" s="20"/>
+      <c r="AD132" s="20"/>
+      <c r="AE132" s="20"/>
+      <c r="AF132" s="20"/>
+      <c r="AG132" s="20"/>
+      <c r="AH132" s="20"/>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -7951,8 +10033,23 @@
         <v/>
       </c>
       <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T133" s="20"/>
+      <c r="U133" s="20"/>
+      <c r="V133" s="20"/>
+      <c r="W133" s="20"/>
+      <c r="X133" s="20"/>
+      <c r="Y133" s="20"/>
+      <c r="Z133" s="20"/>
+      <c r="AA133" s="20"/>
+      <c r="AB133" s="20"/>
+      <c r="AC133" s="20"/>
+      <c r="AD133" s="20"/>
+      <c r="AE133" s="20"/>
+      <c r="AF133" s="20"/>
+      <c r="AG133" s="20"/>
+      <c r="AH133" s="20"/>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -7993,8 +10090,23 @@
         <v/>
       </c>
       <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="20"/>
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="20"/>
+      <c r="AA134" s="20"/>
+      <c r="AB134" s="20"/>
+      <c r="AC134" s="20"/>
+      <c r="AD134" s="20"/>
+      <c r="AE134" s="20"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="20"/>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8035,8 +10147,23 @@
         <v/>
       </c>
       <c r="S135" s="4"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T135" s="20"/>
+      <c r="U135" s="20"/>
+      <c r="V135" s="20"/>
+      <c r="W135" s="20"/>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="20"/>
+      <c r="Z135" s="20"/>
+      <c r="AA135" s="20"/>
+      <c r="AB135" s="20"/>
+      <c r="AC135" s="20"/>
+      <c r="AD135" s="20"/>
+      <c r="AE135" s="20"/>
+      <c r="AF135" s="20"/>
+      <c r="AG135" s="20"/>
+      <c r="AH135" s="20"/>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8077,8 +10204,23 @@
         <v/>
       </c>
       <c r="S136" s="4"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
+      <c r="V136" s="20"/>
+      <c r="W136" s="20"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="20"/>
+      <c r="Z136" s="20"/>
+      <c r="AA136" s="20"/>
+      <c r="AB136" s="20"/>
+      <c r="AC136" s="20"/>
+      <c r="AD136" s="20"/>
+      <c r="AE136" s="20"/>
+      <c r="AF136" s="20"/>
+      <c r="AG136" s="20"/>
+      <c r="AH136" s="20"/>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8119,8 +10261,23 @@
         <v/>
       </c>
       <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T137" s="20"/>
+      <c r="U137" s="20"/>
+      <c r="V137" s="20"/>
+      <c r="W137" s="20"/>
+      <c r="X137" s="20"/>
+      <c r="Y137" s="20"/>
+      <c r="Z137" s="20"/>
+      <c r="AA137" s="20"/>
+      <c r="AB137" s="20"/>
+      <c r="AC137" s="20"/>
+      <c r="AD137" s="20"/>
+      <c r="AE137" s="20"/>
+      <c r="AF137" s="20"/>
+      <c r="AG137" s="20"/>
+      <c r="AH137" s="20"/>
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8161,8 +10318,23 @@
         <v/>
       </c>
       <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="20"/>
+      <c r="W138" s="20"/>
+      <c r="X138" s="20"/>
+      <c r="Y138" s="20"/>
+      <c r="Z138" s="20"/>
+      <c r="AA138" s="20"/>
+      <c r="AB138" s="20"/>
+      <c r="AC138" s="20"/>
+      <c r="AD138" s="20"/>
+      <c r="AE138" s="20"/>
+      <c r="AF138" s="20"/>
+      <c r="AG138" s="20"/>
+      <c r="AH138" s="20"/>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8203,8 +10375,23 @@
         <v/>
       </c>
       <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T139" s="20"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="20"/>
+      <c r="W139" s="20"/>
+      <c r="X139" s="20"/>
+      <c r="Y139" s="20"/>
+      <c r="Z139" s="20"/>
+      <c r="AA139" s="20"/>
+      <c r="AB139" s="20"/>
+      <c r="AC139" s="20"/>
+      <c r="AD139" s="20"/>
+      <c r="AE139" s="20"/>
+      <c r="AF139" s="20"/>
+      <c r="AG139" s="20"/>
+      <c r="AH139" s="20"/>
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8245,8 +10432,23 @@
         <v/>
       </c>
       <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="20"/>
+      <c r="W140" s="20"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="20"/>
+      <c r="Z140" s="20"/>
+      <c r="AA140" s="20"/>
+      <c r="AB140" s="20"/>
+      <c r="AC140" s="20"/>
+      <c r="AD140" s="20"/>
+      <c r="AE140" s="20"/>
+      <c r="AF140" s="20"/>
+      <c r="AG140" s="20"/>
+      <c r="AH140" s="20"/>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8287,8 +10489,23 @@
         <v/>
       </c>
       <c r="S141" s="4"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="20"/>
+      <c r="AA141" s="20"/>
+      <c r="AB141" s="20"/>
+      <c r="AC141" s="20"/>
+      <c r="AD141" s="20"/>
+      <c r="AE141" s="20"/>
+      <c r="AF141" s="20"/>
+      <c r="AG141" s="20"/>
+      <c r="AH141" s="20"/>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8329,8 +10546,23 @@
         <v/>
       </c>
       <c r="S142" s="4"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="20"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="20"/>
+      <c r="AE142" s="20"/>
+      <c r="AF142" s="20"/>
+      <c r="AG142" s="20"/>
+      <c r="AH142" s="20"/>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8371,8 +10603,23 @@
         <v/>
       </c>
       <c r="S143" s="4"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="20"/>
+      <c r="W143" s="20"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
+      <c r="AA143" s="20"/>
+      <c r="AB143" s="20"/>
+      <c r="AC143" s="20"/>
+      <c r="AD143" s="20"/>
+      <c r="AE143" s="20"/>
+      <c r="AF143" s="20"/>
+      <c r="AG143" s="20"/>
+      <c r="AH143" s="20"/>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8413,8 +10660,23 @@
         <v/>
       </c>
       <c r="S144" s="4"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="20"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="20"/>
+      <c r="AE144" s="20"/>
+      <c r="AF144" s="20"/>
+      <c r="AG144" s="20"/>
+      <c r="AH144" s="20"/>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8455,8 +10717,23 @@
         <v/>
       </c>
       <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="20"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+      <c r="AA145" s="20"/>
+      <c r="AB145" s="20"/>
+      <c r="AC145" s="20"/>
+      <c r="AD145" s="20"/>
+      <c r="AE145" s="20"/>
+      <c r="AF145" s="20"/>
+      <c r="AG145" s="20"/>
+      <c r="AH145" s="20"/>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8497,8 +10774,23 @@
         <v/>
       </c>
       <c r="S146" s="4"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="20"/>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="20"/>
+      <c r="AH146" s="20"/>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8539,8 +10831,23 @@
         <v/>
       </c>
       <c r="S147" s="4"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+      <c r="AA147" s="20"/>
+      <c r="AB147" s="20"/>
+      <c r="AC147" s="20"/>
+      <c r="AD147" s="20"/>
+      <c r="AE147" s="20"/>
+      <c r="AF147" s="20"/>
+      <c r="AG147" s="20"/>
+      <c r="AH147" s="20"/>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8581,8 +10888,23 @@
         <v/>
       </c>
       <c r="S148" s="4"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="20"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
+      <c r="Z148" s="20"/>
+      <c r="AA148" s="20"/>
+      <c r="AB148" s="20"/>
+      <c r="AC148" s="20"/>
+      <c r="AD148" s="20"/>
+      <c r="AE148" s="20"/>
+      <c r="AF148" s="20"/>
+      <c r="AG148" s="20"/>
+      <c r="AH148" s="20"/>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8623,8 +10945,23 @@
         <v/>
       </c>
       <c r="S149" s="4"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T149" s="20"/>
+      <c r="U149" s="20"/>
+      <c r="V149" s="20"/>
+      <c r="W149" s="20"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="20"/>
+      <c r="Z149" s="20"/>
+      <c r="AA149" s="20"/>
+      <c r="AB149" s="20"/>
+      <c r="AC149" s="20"/>
+      <c r="AD149" s="20"/>
+      <c r="AE149" s="20"/>
+      <c r="AF149" s="20"/>
+      <c r="AG149" s="20"/>
+      <c r="AH149" s="20"/>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8665,8 +11002,23 @@
         <v/>
       </c>
       <c r="S150" s="4"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
+      <c r="AE150" s="20"/>
+      <c r="AF150" s="20"/>
+      <c r="AG150" s="20"/>
+      <c r="AH150" s="20"/>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8707,8 +11059,23 @@
         <v/>
       </c>
       <c r="S151" s="4"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AE151" s="20"/>
+      <c r="AF151" s="20"/>
+      <c r="AG151" s="20"/>
+      <c r="AH151" s="20"/>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8749,8 +11116,23 @@
         <v/>
       </c>
       <c r="S152" s="4"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+      <c r="AA152" s="20"/>
+      <c r="AB152" s="20"/>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="20"/>
+      <c r="AE152" s="20"/>
+      <c r="AF152" s="20"/>
+      <c r="AG152" s="20"/>
+      <c r="AH152" s="20"/>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8791,8 +11173,23 @@
         <v/>
       </c>
       <c r="S153" s="4"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20"/>
+      <c r="AH153" s="20"/>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8833,8 +11230,23 @@
         <v/>
       </c>
       <c r="S154" s="4"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
+      <c r="AE154" s="20"/>
+      <c r="AF154" s="20"/>
+      <c r="AG154" s="20"/>
+      <c r="AH154" s="20"/>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8875,8 +11287,23 @@
         <v/>
       </c>
       <c r="S155" s="4"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
+      <c r="AE155" s="20"/>
+      <c r="AF155" s="20"/>
+      <c r="AG155" s="20"/>
+      <c r="AH155" s="20"/>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8917,8 +11344,23 @@
         <v/>
       </c>
       <c r="S156" s="4"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -8959,8 +11401,23 @@
         <v/>
       </c>
       <c r="S157" s="4"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
+      <c r="AD157" s="20"/>
+      <c r="AE157" s="20"/>
+      <c r="AF157" s="20"/>
+      <c r="AG157" s="20"/>
+      <c r="AH157" s="20"/>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9001,8 +11458,23 @@
         <v/>
       </c>
       <c r="S158" s="4"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="20"/>
+      <c r="AA158" s="20"/>
+      <c r="AB158" s="20"/>
+      <c r="AC158" s="20"/>
+      <c r="AD158" s="20"/>
+      <c r="AE158" s="20"/>
+      <c r="AF158" s="20"/>
+      <c r="AG158" s="20"/>
+      <c r="AH158" s="20"/>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9043,8 +11515,23 @@
         <v/>
       </c>
       <c r="S159" s="4"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="20"/>
+      <c r="AE159" s="20"/>
+      <c r="AF159" s="20"/>
+      <c r="AG159" s="20"/>
+      <c r="AH159" s="20"/>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9085,8 +11572,23 @@
         <v/>
       </c>
       <c r="S160" s="4"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T160" s="20"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="20"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="20"/>
+      <c r="AE160" s="20"/>
+      <c r="AF160" s="20"/>
+      <c r="AG160" s="20"/>
+      <c r="AH160" s="20"/>
+    </row>
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9127,8 +11629,23 @@
         <v/>
       </c>
       <c r="S161" s="4"/>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T161" s="20"/>
+      <c r="U161" s="20"/>
+      <c r="V161" s="20"/>
+      <c r="W161" s="20"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="20"/>
+      <c r="AD161" s="20"/>
+      <c r="AE161" s="20"/>
+      <c r="AF161" s="20"/>
+      <c r="AG161" s="20"/>
+      <c r="AH161" s="20"/>
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9169,8 +11686,23 @@
         <v/>
       </c>
       <c r="S162" s="4"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T162" s="20"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="20"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="20"/>
+      <c r="AE162" s="20"/>
+      <c r="AF162" s="20"/>
+      <c r="AG162" s="20"/>
+      <c r="AH162" s="20"/>
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9211,8 +11743,23 @@
         <v/>
       </c>
       <c r="S163" s="4"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T163" s="20"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="20"/>
+      <c r="AE163" s="20"/>
+      <c r="AF163" s="20"/>
+      <c r="AG163" s="20"/>
+      <c r="AH163" s="20"/>
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9253,8 +11800,23 @@
         <v/>
       </c>
       <c r="S164" s="4"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+      <c r="AE164" s="20"/>
+      <c r="AF164" s="20"/>
+      <c r="AG164" s="20"/>
+      <c r="AH164" s="20"/>
+    </row>
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9295,8 +11857,23 @@
         <v/>
       </c>
       <c r="S165" s="4"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
+      <c r="AE165" s="20"/>
+      <c r="AF165" s="20"/>
+      <c r="AG165" s="20"/>
+      <c r="AH165" s="20"/>
+    </row>
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9337,8 +11914,23 @@
         <v/>
       </c>
       <c r="S166" s="4"/>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
+      <c r="AE166" s="20"/>
+      <c r="AF166" s="20"/>
+      <c r="AG166" s="20"/>
+      <c r="AH166" s="20"/>
+    </row>
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9379,8 +11971,23 @@
         <v/>
       </c>
       <c r="S167" s="4"/>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
+      <c r="AD167" s="20"/>
+      <c r="AE167" s="20"/>
+      <c r="AF167" s="20"/>
+      <c r="AG167" s="20"/>
+      <c r="AH167" s="20"/>
+    </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -9421,6 +12028,21 @@
         <v/>
       </c>
       <c r="S168" s="4"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AE168" s="20"/>
+      <c r="AF168" s="20"/>
+      <c r="AG168" s="20"/>
+      <c r="AH168" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -15677,8 +18299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E41FD-B4E9-444B-A54C-D5ADAA997815}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15858,15 +18480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -16069,6 +18682,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16076,14 +18698,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16102,6 +18716,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
   <ds:schemaRefs>

--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7090861-9CB5-4878-84AF-6E6309ED1C4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13B566-1F73-4D28-8571-C26C92E248C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27285" yWindow="45" windowWidth="28665" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="614">
   <si>
     <t>No.</t>
   </si>
@@ -1877,6 +1877,15 @@
   </si>
   <si>
     <t>Výsledek zpracování</t>
+  </si>
+  <si>
+    <t>Číslo výrobního odběrného místa</t>
+  </si>
+  <si>
+    <t>TKD kontakt</t>
+  </si>
+  <si>
+    <t>Hodnota smluvního účtu</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2010,6 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -2308,10 +2318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:AH168"/>
+  <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="A1:AC7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2349,7 @@
     <col min="23" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2427,21 +2437,30 @@
       <c r="AC1" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG1" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AH1" s="18"/>
-    </row>
-    <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK1" s="18"/>
+    </row>
+    <row r="2" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(C2&lt;&gt;"",1,"")</f>
         <v>1</v>
@@ -2522,7 +2541,7 @@
       <c r="AG2" s="19"/>
       <c r="AH2" s="19"/>
     </row>
-    <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(C3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
@@ -2603,7 +2622,7 @@
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
     </row>
-    <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A8" si="2">IF(C4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
@@ -2684,7 +2703,7 @@
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
     </row>
-    <row r="5" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2760,12 +2779,9 @@
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
     </row>
-    <row r="6" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2846,7 +2862,7 @@
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
     </row>
-    <row r="7" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2885,7 +2901,7 @@
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
     </row>
-    <row r="8" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2924,7 +2940,7 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(C9&lt;&gt;"",#REF!+1,"")</f>
         <v/>
@@ -2981,7 +2997,7 @@
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" ref="A10:A66" si="5">IF(C10&lt;&gt;"",A9+1,"")</f>
         <v/>
@@ -3038,7 +3054,7 @@
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3095,7 +3111,7 @@
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3152,7 +3168,7 @@
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3209,7 +3225,7 @@
       <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3266,7 +3282,7 @@
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3323,7 +3339,7 @@
       <c r="AG15" s="20"/>
       <c r="AH15" s="20"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>

--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13B566-1F73-4D28-8571-C26C92E248C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960765C-C3D0-4C5C-BBC9-CCABFB6095BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27285" yWindow="45" windowWidth="28665" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="641">
   <si>
     <t>No.</t>
   </si>
@@ -1886,6 +1886,87 @@
   </si>
   <si>
     <t>Hodnota smluvního účtu</t>
+  </si>
+  <si>
+    <t>out_strDruhZpravySOP</t>
+  </si>
+  <si>
+    <t>out_strStatuszpravy</t>
+  </si>
+  <si>
+    <t>out_strPlatnostdo</t>
+  </si>
+  <si>
+    <t>out_strPocetGeneratoru</t>
+  </si>
+  <si>
+    <t>out_strStatusKontaktu</t>
+  </si>
+  <si>
+    <t>out_strTypsmluvnihouctu</t>
+  </si>
+  <si>
+    <t>out_strSkupUcOkruhu</t>
+  </si>
+  <si>
+    <t>out_strZpusobDosPlat</t>
+  </si>
+  <si>
+    <t>out_strZpusOdeslPl</t>
+  </si>
+  <si>
+    <t>out_strAtribNalezUctu</t>
+  </si>
+  <si>
+    <t>out_strSdruzFakturace</t>
+  </si>
+  <si>
+    <t>out_strCyklusZaloh</t>
+  </si>
+  <si>
+    <t>out_strDrMistSpot</t>
+  </si>
+  <si>
+    <t>out_strZpusobprovozuVZ</t>
+  </si>
+  <si>
+    <t>out_strTypmereni</t>
+  </si>
+  <si>
+    <t>out_strOperand</t>
+  </si>
+  <si>
+    <t>out_strTrida</t>
+  </si>
+  <si>
+    <t>out_strAkce</t>
+  </si>
+  <si>
+    <t>out_strDruhkontaktu</t>
+  </si>
+  <si>
+    <t>out_strSmer</t>
+  </si>
+  <si>
+    <t>out_strVychoziEmail</t>
+  </si>
+  <si>
+    <t>out_strUpravaTerminu</t>
+  </si>
+  <si>
+    <t>out_strPoleMikrozdroj</t>
+  </si>
+  <si>
+    <t>out_intTimeoutS</t>
+  </si>
+  <si>
+    <t>out_intTimeoutM</t>
+  </si>
+  <si>
+    <t>out_intTimeoutL</t>
+  </si>
+  <si>
+    <t>out_intMaxRetries</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2401,7 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -18313,10 +18394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E41FD-B4E9-444B-A54C-D5ADAA997815}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B47" sqref="B21:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18489,6 +18570,249 @@
         <v>"kontaktniTelefon: "&amp; out_DictionaryValues("kontaktniTelefon").ToString &amp; vbcrlf &amp;</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21" t="str">
+        <f>""""&amp; A21 &amp;": " &amp;""""&amp;"&amp; "&amp; A21&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
+        <v>"out_strDruhZpravySOP: "&amp; out_strDruhZpravySOP.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>615</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:B47" si="1">""""&amp; A22 &amp;": " &amp;""""&amp;"&amp; "&amp; A22&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
+        <v>"out_strStatuszpravy: "&amp; out_strStatuszpravy.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strPlatnostdo: "&amp; out_strPlatnostdo.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strPocetGeneratoru: "&amp; out_strPocetGeneratoru.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>618</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strStatusKontaktu: "&amp; out_strStatusKontaktu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strTypsmluvnihouctu: "&amp; out_strTypsmluvnihouctu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strSkupUcOkruhu: "&amp; out_strSkupUcOkruhu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>621</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strZpusobDosPlat: "&amp; out_strZpusobDosPlat.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strZpusOdeslPl: "&amp; out_strZpusOdeslPl.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>623</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strAtribNalezUctu: "&amp; out_strAtribNalezUctu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strSdruzFakturace: "&amp; out_strSdruzFakturace.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strCyklusZaloh: "&amp; out_strCyklusZaloh.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>626</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strDrMistSpot: "&amp; out_strDrMistSpot.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strZpusobprovozuVZ: "&amp; out_strZpusobprovozuVZ.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>628</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strTypmereni: "&amp; out_strTypmereni.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>629</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strOperand: "&amp; out_strOperand.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>630</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strTrida: "&amp; out_strTrida.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>631</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strAkce: "&amp; out_strAkce.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strDruhkontaktu: "&amp; out_strDruhkontaktu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>633</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strSmer: "&amp; out_strSmer.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>634</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strVychoziEmail: "&amp; out_strVychoziEmail.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strUpravaTerminu: "&amp; out_strUpravaTerminu.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_strPoleMikrozdroj: "&amp; out_strPoleMikrozdroj.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>637</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_intTimeoutS: "&amp; out_intTimeoutS.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_intTimeoutM: "&amp; out_intTimeoutM.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>639</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_intTimeoutL: "&amp; out_intTimeoutL.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>640</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>"out_intMaxRetries: "&amp; out_intMaxRetries.ToString &amp; vbcrlf &amp;</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18496,6 +18820,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -18698,15 +19031,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18714,6 +19038,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18732,14 +19064,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
   <ds:schemaRefs>

--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960765C-C3D0-4C5C-BBC9-CCABFB6095BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4823A-8935-4BB2-A48E-AD49E9FDE3B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28935" yWindow="45" windowWidth="28665" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="644">
   <si>
     <t>No.</t>
   </si>
@@ -1846,15 +1846,6 @@
     <t>stav procesu3</t>
   </si>
   <si>
-    <t>Doplnění1</t>
-  </si>
-  <si>
-    <t>Doplněni 2</t>
-  </si>
-  <si>
-    <t>doplneni 3</t>
-  </si>
-  <si>
     <t>doplneni 4</t>
   </si>
   <si>
@@ -1967,6 +1958,24 @@
   </si>
   <si>
     <t>out_intMaxRetries</t>
+  </si>
+  <si>
+    <t>Petr Hladil</t>
+  </si>
+  <si>
+    <t>Jana Žižky 238</t>
+  </si>
+  <si>
+    <t>Mail tělo</t>
+  </si>
+  <si>
+    <t>PoznámkaPP</t>
+  </si>
+  <si>
+    <t>Sazba</t>
+  </si>
+  <si>
+    <t>KPJM</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2101,6 +2110,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -2399,10 +2413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:AK168"/>
+  <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,17 +2434,20 @@
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.7109375" customWidth="1"/>
+    <col min="15" max="15" width="35.42578125" customWidth="1"/>
     <col min="16" max="16" width="50.7109375" customWidth="1"/>
     <col min="17" max="17" width="41" customWidth="1"/>
     <col min="18" max="18" width="34.5703125" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
     <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="34" width="11" customWidth="1"/>
+    <col min="23" max="25" width="11" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2489,59 +2506,62 @@
         <v>572</v>
       </c>
       <c r="T1" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="Y1" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Z1" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AD1" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK1" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AB1" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG1" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="AK1" s="18"/>
-    </row>
-    <row r="2" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="18"/>
+    </row>
+    <row r="2" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(C2&lt;&gt;"",1,"")</f>
         <v>1</v>
@@ -2606,23 +2626,60 @@
       <c r="S2" s="6">
         <v>777875678</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="T2" s="19" t="str">
+        <f>"Vážený obchodní partnere, 
+dovolujeme si Vás informovat, že vznikl nový mikrozdroj na hladině NN ve stávajícím OM, EAN " &amp; C2 &amp;" - " &amp; X2 &amp; "/" &amp;TEXT(Z2,"dd.MM.rrrr") &amp;", " &amp; Y2 &amp;"." &amp;"
+Montáž 4Q elektroměru bude " &amp; TEXT(K2,"dd.MM.rrrr") &amp; ". Změna typu měření z C na B bude provedena.
+NA TENTO E-MAIL, PROSÍM, NEODPOVÍDEJTE.
+Děkujeme Vám.
+S pozdravem
+"&amp;B2&amp;"
+ČEZ Distribuce, a. s.
+Guldenerova 2577/19
+326 00 PLZEŇ
+www.cezdistribuce.cz/dodavatel"</f>
+        <v>Vážený obchodní partnere, 
+dovolujeme si Vás informovat, že vznikl nový mikrozdroj na hladině NN ve stávajícím OM, EAN 859182400400189225 - Petr Hladil/30.04.1987, Jana Žižky 238.
+Montáž 4Q elektroměru bude 30.11.2020. Změna typu měření z C na B bude provedena.
+NA TENTO E-MAIL, PROSÍM, NEODPOVÍDEJTE.
+Děkujeme Vám.
+S pozdravem
+Souralová Oľga
+ČEZ Distribuce, a. s.
+Guldenerova 2577/19
+326 00 PLZEŇ
+www.cezdistribuce.cz/dodavatel</v>
+      </c>
+      <c r="U2" s="26" t="str">
+        <f>"PPP + osazení 4Q elměru pro novou FVE " &amp; M2 &amp; ", HJ stáv. " &amp;AB2 &amp;" A, sazba " &amp; AG2 &amp;", Pi "&amp; AC2 &amp;" kW, HDO ANO, KO č. " &amp; D2 &amp;" , "&amp; X2 &amp; ", " &amp; S2</f>
+        <v>PPP + osazení 4Q elměru pro novou FVE MS, HJ stáv. 23 A, sazba , Pi 4 kW, HDO ANO, KO č. 1107959414 , Petr Hladil, 777875678</v>
+      </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+      <c r="X2" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>31897</v>
+      </c>
       <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
+      <c r="AB2" s="19">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="19">
+        <v>4</v>
+      </c>
       <c r="AD2" s="19"/>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
       <c r="AH2" s="19"/>
-    </row>
-    <row r="3" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="19"/>
+    </row>
+    <row r="3" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(C3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
@@ -2702,8 +2759,9 @@
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
-    </row>
-    <row r="4" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="19"/>
+    </row>
+    <row r="4" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A8" si="2">IF(C4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
@@ -2771,7 +2829,7 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="W4" s="25"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
@@ -2783,8 +2841,9 @@
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
-    </row>
-    <row r="5" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI4" s="19"/>
+    </row>
+    <row r="5" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2860,9 +2919,9 @@
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
-      <c r="AH5" s="19"/>
-    </row>
-    <row r="6" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI5" s="19"/>
+    </row>
+    <row r="6" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2942,8 +3001,9 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
-    </row>
-    <row r="7" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI6" s="19"/>
+    </row>
+    <row r="7" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2981,8 +3041,9 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-    </row>
-    <row r="8" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3020,8 +3081,9 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI8" s="19"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(C9&lt;&gt;"",#REF!+1,"")</f>
         <v/>
@@ -3077,8 +3139,9 @@
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI9" s="20"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" ref="A10:A66" si="5">IF(C10&lt;&gt;"",A9+1,"")</f>
         <v/>
@@ -3134,8 +3197,9 @@
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI10" s="20"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3191,8 +3255,9 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI11" s="20"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3248,8 +3313,9 @@
       <c r="AF12" s="20"/>
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI12" s="20"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3305,8 +3371,9 @@
       <c r="AF13" s="20"/>
       <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI13" s="20"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3362,8 +3429,9 @@
       <c r="AF14" s="20"/>
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI14" s="20"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3419,8 +3487,9 @@
       <c r="AF15" s="20"/>
       <c r="AG15" s="20"/>
       <c r="AH15" s="20"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="20"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3476,8 +3545,9 @@
       <c r="AF16" s="20"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI16" s="20"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3533,8 +3603,9 @@
       <c r="AF17" s="20"/>
       <c r="AG17" s="20"/>
       <c r="AH17" s="20"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI17" s="20"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3590,8 +3661,9 @@
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18" s="20"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3647,8 +3719,9 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI19" s="20"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3704,8 +3777,9 @@
       <c r="AF20" s="20"/>
       <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI20" s="20"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3761,8 +3835,9 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI21" s="20"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3818,8 +3893,9 @@
       <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI22" s="20"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3875,8 +3951,9 @@
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI23" s="20"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3932,8 +4009,9 @@
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI24" s="20"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3989,8 +4067,9 @@
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI25" s="20"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4046,8 +4125,9 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI26" s="20"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4103,8 +4183,9 @@
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI27" s="20"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4160,8 +4241,9 @@
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI28" s="20"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4217,8 +4299,9 @@
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
       <c r="AH29" s="20"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI29" s="20"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4274,8 +4357,9 @@
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI30" s="20"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4331,8 +4415,9 @@
       <c r="AF31" s="20"/>
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI31" s="20"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4388,8 +4473,9 @@
       <c r="AF32" s="20"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI32" s="20"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4445,8 +4531,9 @@
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="20"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI33" s="20"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4502,8 +4589,9 @@
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI34" s="20"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4559,8 +4647,9 @@
       <c r="AF35" s="20"/>
       <c r="AG35" s="20"/>
       <c r="AH35" s="20"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI35" s="20"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4616,8 +4705,9 @@
       <c r="AF36" s="20"/>
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI36" s="20"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4673,8 +4763,9 @@
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
       <c r="AH37" s="20"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI37" s="20"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4730,8 +4821,9 @@
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI38" s="20"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4787,8 +4879,9 @@
       <c r="AF39" s="20"/>
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI39" s="20"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4844,8 +4937,9 @@
       <c r="AF40" s="20"/>
       <c r="AG40" s="20"/>
       <c r="AH40" s="20"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI40" s="20"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4901,8 +4995,9 @@
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI41" s="20"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4958,8 +5053,9 @@
       <c r="AF42" s="20"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI42" s="20"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5015,8 +5111,9 @@
       <c r="AF43" s="20"/>
       <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI43" s="20"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5072,8 +5169,9 @@
       <c r="AF44" s="20"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI44" s="20"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5129,8 +5227,9 @@
       <c r="AF45" s="20"/>
       <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI45" s="20"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5186,8 +5285,9 @@
       <c r="AF46" s="20"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI46" s="20"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5243,8 +5343,9 @@
       <c r="AF47" s="20"/>
       <c r="AG47" s="20"/>
       <c r="AH47" s="20"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI47" s="20"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5300,8 +5401,9 @@
       <c r="AF48" s="20"/>
       <c r="AG48" s="20"/>
       <c r="AH48" s="20"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI48" s="20"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5357,8 +5459,9 @@
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
       <c r="AH49" s="20"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI49" s="20"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5414,8 +5517,9 @@
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI50" s="20"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5471,8 +5575,9 @@
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
       <c r="AH51" s="20"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI51" s="20"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5528,8 +5633,9 @@
       <c r="AF52" s="20"/>
       <c r="AG52" s="20"/>
       <c r="AH52" s="20"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI52" s="20"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5585,8 +5691,9 @@
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
       <c r="AH53" s="20"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI53" s="20"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5642,8 +5749,9 @@
       <c r="AF54" s="20"/>
       <c r="AG54" s="20"/>
       <c r="AH54" s="20"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI54" s="20"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5699,8 +5807,9 @@
       <c r="AF55" s="20"/>
       <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI55" s="20"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5756,8 +5865,9 @@
       <c r="AF56" s="20"/>
       <c r="AG56" s="20"/>
       <c r="AH56" s="20"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI56" s="20"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5813,8 +5923,9 @@
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="20"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI57" s="20"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5870,8 +5981,9 @@
       <c r="AF58" s="20"/>
       <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI58" s="20"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5927,8 +6039,9 @@
       <c r="AF59" s="20"/>
       <c r="AG59" s="20"/>
       <c r="AH59" s="20"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI59" s="20"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5984,8 +6097,9 @@
       <c r="AF60" s="20"/>
       <c r="AG60" s="20"/>
       <c r="AH60" s="20"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI60" s="20"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6041,8 +6155,9 @@
       <c r="AF61" s="20"/>
       <c r="AG61" s="20"/>
       <c r="AH61" s="20"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI61" s="20"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6098,8 +6213,9 @@
       <c r="AF62" s="20"/>
       <c r="AG62" s="20"/>
       <c r="AH62" s="20"/>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI62" s="20"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6155,8 +6271,9 @@
       <c r="AF63" s="20"/>
       <c r="AG63" s="20"/>
       <c r="AH63" s="20"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI63" s="20"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6212,8 +6329,9 @@
       <c r="AF64" s="20"/>
       <c r="AG64" s="20"/>
       <c r="AH64" s="20"/>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI64" s="20"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6269,8 +6387,9 @@
       <c r="AF65" s="20"/>
       <c r="AG65" s="20"/>
       <c r="AH65" s="20"/>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI65" s="20"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6326,8 +6445,9 @@
       <c r="AF66" s="20"/>
       <c r="AG66" s="20"/>
       <c r="AH66" s="20"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI66" s="20"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" ref="A67:A130" si="10">IF(C67&lt;&gt;"",A66+1,"")</f>
         <v/>
@@ -6383,8 +6503,9 @@
       <c r="AF67" s="20"/>
       <c r="AG67" s="20"/>
       <c r="AH67" s="20"/>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI67" s="20"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6440,8 +6561,9 @@
       <c r="AF68" s="20"/>
       <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI68" s="20"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6497,8 +6619,9 @@
       <c r="AF69" s="20"/>
       <c r="AG69" s="20"/>
       <c r="AH69" s="20"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI69" s="20"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6554,8 +6677,9 @@
       <c r="AF70" s="20"/>
       <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI70" s="20"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6611,8 +6735,9 @@
       <c r="AF71" s="20"/>
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI71" s="20"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6668,8 +6793,9 @@
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI72" s="20"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6725,8 +6851,9 @@
       <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI73" s="20"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6782,8 +6909,9 @@
       <c r="AF74" s="20"/>
       <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI74" s="20"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6839,8 +6967,9 @@
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI75" s="20"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6896,8 +7025,9 @@
       <c r="AF76" s="20"/>
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI76" s="20"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6953,8 +7083,9 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI77" s="20"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7010,8 +7141,9 @@
       <c r="AF78" s="20"/>
       <c r="AG78" s="20"/>
       <c r="AH78" s="20"/>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI78" s="20"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7067,8 +7199,9 @@
       <c r="AF79" s="20"/>
       <c r="AG79" s="20"/>
       <c r="AH79" s="20"/>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI79" s="20"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7124,8 +7257,9 @@
       <c r="AF80" s="20"/>
       <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI80" s="20"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7181,8 +7315,9 @@
       <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
       <c r="AH81" s="20"/>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI81" s="20"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7238,8 +7373,9 @@
       <c r="AF82" s="20"/>
       <c r="AG82" s="20"/>
       <c r="AH82" s="20"/>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI82" s="20"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7295,8 +7431,9 @@
       <c r="AF83" s="20"/>
       <c r="AG83" s="20"/>
       <c r="AH83" s="20"/>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI83" s="20"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7352,8 +7489,9 @@
       <c r="AF84" s="20"/>
       <c r="AG84" s="20"/>
       <c r="AH84" s="20"/>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI84" s="20"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7409,8 +7547,9 @@
       <c r="AF85" s="20"/>
       <c r="AG85" s="20"/>
       <c r="AH85" s="20"/>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI85" s="20"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7466,8 +7605,9 @@
       <c r="AF86" s="20"/>
       <c r="AG86" s="20"/>
       <c r="AH86" s="20"/>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI86" s="20"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7523,8 +7663,9 @@
       <c r="AF87" s="20"/>
       <c r="AG87" s="20"/>
       <c r="AH87" s="20"/>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI87" s="20"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7580,8 +7721,9 @@
       <c r="AF88" s="20"/>
       <c r="AG88" s="20"/>
       <c r="AH88" s="20"/>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI88" s="20"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7637,8 +7779,9 @@
       <c r="AF89" s="20"/>
       <c r="AG89" s="20"/>
       <c r="AH89" s="20"/>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI89" s="20"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7694,8 +7837,9 @@
       <c r="AF90" s="20"/>
       <c r="AG90" s="20"/>
       <c r="AH90" s="20"/>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI90" s="20"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7751,8 +7895,9 @@
       <c r="AF91" s="20"/>
       <c r="AG91" s="20"/>
       <c r="AH91" s="20"/>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI91" s="20"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7808,8 +7953,9 @@
       <c r="AF92" s="20"/>
       <c r="AG92" s="20"/>
       <c r="AH92" s="20"/>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI92" s="20"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7865,8 +8011,9 @@
       <c r="AF93" s="20"/>
       <c r="AG93" s="20"/>
       <c r="AH93" s="20"/>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI93" s="20"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7922,8 +8069,9 @@
       <c r="AF94" s="20"/>
       <c r="AG94" s="20"/>
       <c r="AH94" s="20"/>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI94" s="20"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7979,8 +8127,9 @@
       <c r="AF95" s="20"/>
       <c r="AG95" s="20"/>
       <c r="AH95" s="20"/>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI95" s="20"/>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8036,8 +8185,9 @@
       <c r="AF96" s="20"/>
       <c r="AG96" s="20"/>
       <c r="AH96" s="20"/>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI96" s="20"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8093,8 +8243,9 @@
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
       <c r="AH97" s="20"/>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI97" s="20"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8150,8 +8301,9 @@
       <c r="AF98" s="20"/>
       <c r="AG98" s="20"/>
       <c r="AH98" s="20"/>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI98" s="20"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8207,8 +8359,9 @@
       <c r="AF99" s="20"/>
       <c r="AG99" s="20"/>
       <c r="AH99" s="20"/>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI99" s="20"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8264,8 +8417,9 @@
       <c r="AF100" s="20"/>
       <c r="AG100" s="20"/>
       <c r="AH100" s="20"/>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI100" s="20"/>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8321,8 +8475,9 @@
       <c r="AF101" s="20"/>
       <c r="AG101" s="20"/>
       <c r="AH101" s="20"/>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI101" s="20"/>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8378,8 +8533,9 @@
       <c r="AF102" s="20"/>
       <c r="AG102" s="20"/>
       <c r="AH102" s="20"/>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI102" s="20"/>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8435,8 +8591,9 @@
       <c r="AF103" s="20"/>
       <c r="AG103" s="20"/>
       <c r="AH103" s="20"/>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI103" s="20"/>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8492,8 +8649,9 @@
       <c r="AF104" s="20"/>
       <c r="AG104" s="20"/>
       <c r="AH104" s="20"/>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI104" s="20"/>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8549,8 +8707,9 @@
       <c r="AF105" s="20"/>
       <c r="AG105" s="20"/>
       <c r="AH105" s="20"/>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI105" s="20"/>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8606,8 +8765,9 @@
       <c r="AF106" s="20"/>
       <c r="AG106" s="20"/>
       <c r="AH106" s="20"/>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI106" s="20"/>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8663,8 +8823,9 @@
       <c r="AF107" s="20"/>
       <c r="AG107" s="20"/>
       <c r="AH107" s="20"/>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI107" s="20"/>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8720,8 +8881,9 @@
       <c r="AF108" s="20"/>
       <c r="AG108" s="20"/>
       <c r="AH108" s="20"/>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI108" s="20"/>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8777,8 +8939,9 @@
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
       <c r="AH109" s="20"/>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI109" s="20"/>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8834,8 +8997,9 @@
       <c r="AF110" s="20"/>
       <c r="AG110" s="20"/>
       <c r="AH110" s="20"/>
-    </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI110" s="20"/>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8891,8 +9055,9 @@
       <c r="AF111" s="20"/>
       <c r="AG111" s="20"/>
       <c r="AH111" s="20"/>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI111" s="20"/>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8948,8 +9113,9 @@
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
       <c r="AH112" s="20"/>
-    </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI112" s="20"/>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9005,8 +9171,9 @@
       <c r="AF113" s="20"/>
       <c r="AG113" s="20"/>
       <c r="AH113" s="20"/>
-    </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI113" s="20"/>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9062,8 +9229,9 @@
       <c r="AF114" s="20"/>
       <c r="AG114" s="20"/>
       <c r="AH114" s="20"/>
-    </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI114" s="20"/>
+    </row>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9119,8 +9287,9 @@
       <c r="AF115" s="20"/>
       <c r="AG115" s="20"/>
       <c r="AH115" s="20"/>
-    </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI115" s="20"/>
+    </row>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9176,8 +9345,9 @@
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
       <c r="AH116" s="20"/>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI116" s="20"/>
+    </row>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9233,8 +9403,9 @@
       <c r="AF117" s="20"/>
       <c r="AG117" s="20"/>
       <c r="AH117" s="20"/>
-    </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI117" s="20"/>
+    </row>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9290,8 +9461,9 @@
       <c r="AF118" s="20"/>
       <c r="AG118" s="20"/>
       <c r="AH118" s="20"/>
-    </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI118" s="20"/>
+    </row>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9347,8 +9519,9 @@
       <c r="AF119" s="20"/>
       <c r="AG119" s="20"/>
       <c r="AH119" s="20"/>
-    </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI119" s="20"/>
+    </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9404,8 +9577,9 @@
       <c r="AF120" s="20"/>
       <c r="AG120" s="20"/>
       <c r="AH120" s="20"/>
-    </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI120" s="20"/>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9461,8 +9635,9 @@
       <c r="AF121" s="20"/>
       <c r="AG121" s="20"/>
       <c r="AH121" s="20"/>
-    </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI121" s="20"/>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9518,8 +9693,9 @@
       <c r="AF122" s="20"/>
       <c r="AG122" s="20"/>
       <c r="AH122" s="20"/>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI122" s="20"/>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9575,8 +9751,9 @@
       <c r="AF123" s="20"/>
       <c r="AG123" s="20"/>
       <c r="AH123" s="20"/>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI123" s="20"/>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9632,8 +9809,9 @@
       <c r="AF124" s="20"/>
       <c r="AG124" s="20"/>
       <c r="AH124" s="20"/>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI124" s="20"/>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9689,8 +9867,9 @@
       <c r="AF125" s="20"/>
       <c r="AG125" s="20"/>
       <c r="AH125" s="20"/>
-    </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI125" s="20"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9746,8 +9925,9 @@
       <c r="AF126" s="20"/>
       <c r="AG126" s="20"/>
       <c r="AH126" s="20"/>
-    </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI126" s="20"/>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9803,8 +9983,9 @@
       <c r="AF127" s="20"/>
       <c r="AG127" s="20"/>
       <c r="AH127" s="20"/>
-    </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI127" s="20"/>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9860,8 +10041,9 @@
       <c r="AF128" s="20"/>
       <c r="AG128" s="20"/>
       <c r="AH128" s="20"/>
-    </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI128" s="20"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9917,8 +10099,9 @@
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
       <c r="AH129" s="20"/>
-    </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI129" s="20"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9974,8 +10157,9 @@
       <c r="AF130" s="20"/>
       <c r="AG130" s="20"/>
       <c r="AH130" s="20"/>
-    </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI130" s="20"/>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="str">
         <f t="shared" ref="A131:A168" si="14">IF(C131&lt;&gt;"",A130+1,"")</f>
         <v/>
@@ -10031,8 +10215,9 @@
       <c r="AF131" s="20"/>
       <c r="AG131" s="20"/>
       <c r="AH131" s="20"/>
-    </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI131" s="20"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10088,8 +10273,9 @@
       <c r="AF132" s="20"/>
       <c r="AG132" s="20"/>
       <c r="AH132" s="20"/>
-    </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI132" s="20"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10145,8 +10331,9 @@
       <c r="AF133" s="20"/>
       <c r="AG133" s="20"/>
       <c r="AH133" s="20"/>
-    </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI133" s="20"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10202,8 +10389,9 @@
       <c r="AF134" s="20"/>
       <c r="AG134" s="20"/>
       <c r="AH134" s="20"/>
-    </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI134" s="20"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10259,8 +10447,9 @@
       <c r="AF135" s="20"/>
       <c r="AG135" s="20"/>
       <c r="AH135" s="20"/>
-    </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI135" s="20"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10316,8 +10505,9 @@
       <c r="AF136" s="20"/>
       <c r="AG136" s="20"/>
       <c r="AH136" s="20"/>
-    </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI136" s="20"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10373,8 +10563,9 @@
       <c r="AF137" s="20"/>
       <c r="AG137" s="20"/>
       <c r="AH137" s="20"/>
-    </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI137" s="20"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10430,8 +10621,9 @@
       <c r="AF138" s="20"/>
       <c r="AG138" s="20"/>
       <c r="AH138" s="20"/>
-    </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI138" s="20"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10487,8 +10679,9 @@
       <c r="AF139" s="20"/>
       <c r="AG139" s="20"/>
       <c r="AH139" s="20"/>
-    </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI139" s="20"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10544,8 +10737,9 @@
       <c r="AF140" s="20"/>
       <c r="AG140" s="20"/>
       <c r="AH140" s="20"/>
-    </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI140" s="20"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10601,8 +10795,9 @@
       <c r="AF141" s="20"/>
       <c r="AG141" s="20"/>
       <c r="AH141" s="20"/>
-    </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI141" s="20"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10658,8 +10853,9 @@
       <c r="AF142" s="20"/>
       <c r="AG142" s="20"/>
       <c r="AH142" s="20"/>
-    </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI142" s="20"/>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10715,8 +10911,9 @@
       <c r="AF143" s="20"/>
       <c r="AG143" s="20"/>
       <c r="AH143" s="20"/>
-    </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI143" s="20"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10772,8 +10969,9 @@
       <c r="AF144" s="20"/>
       <c r="AG144" s="20"/>
       <c r="AH144" s="20"/>
-    </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI144" s="20"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10829,8 +11027,9 @@
       <c r="AF145" s="20"/>
       <c r="AG145" s="20"/>
       <c r="AH145" s="20"/>
-    </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI145" s="20"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10886,8 +11085,9 @@
       <c r="AF146" s="20"/>
       <c r="AG146" s="20"/>
       <c r="AH146" s="20"/>
-    </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI146" s="20"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10943,8 +11143,9 @@
       <c r="AF147" s="20"/>
       <c r="AG147" s="20"/>
       <c r="AH147" s="20"/>
-    </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI147" s="20"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11000,8 +11201,9 @@
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
       <c r="AH148" s="20"/>
-    </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI148" s="20"/>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11057,8 +11259,9 @@
       <c r="AF149" s="20"/>
       <c r="AG149" s="20"/>
       <c r="AH149" s="20"/>
-    </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI149" s="20"/>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11114,8 +11317,9 @@
       <c r="AF150" s="20"/>
       <c r="AG150" s="20"/>
       <c r="AH150" s="20"/>
-    </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI150" s="20"/>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11171,8 +11375,9 @@
       <c r="AF151" s="20"/>
       <c r="AG151" s="20"/>
       <c r="AH151" s="20"/>
-    </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI151" s="20"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11228,8 +11433,9 @@
       <c r="AF152" s="20"/>
       <c r="AG152" s="20"/>
       <c r="AH152" s="20"/>
-    </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI152" s="20"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11285,8 +11491,9 @@
       <c r="AF153" s="20"/>
       <c r="AG153" s="20"/>
       <c r="AH153" s="20"/>
-    </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI153" s="20"/>
+    </row>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11342,8 +11549,9 @@
       <c r="AF154" s="20"/>
       <c r="AG154" s="20"/>
       <c r="AH154" s="20"/>
-    </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI154" s="20"/>
+    </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11399,8 +11607,9 @@
       <c r="AF155" s="20"/>
       <c r="AG155" s="20"/>
       <c r="AH155" s="20"/>
-    </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI155" s="20"/>
+    </row>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11456,8 +11665,9 @@
       <c r="AF156" s="20"/>
       <c r="AG156" s="20"/>
       <c r="AH156" s="20"/>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI156" s="20"/>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11513,8 +11723,9 @@
       <c r="AF157" s="20"/>
       <c r="AG157" s="20"/>
       <c r="AH157" s="20"/>
-    </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI157" s="20"/>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11570,8 +11781,9 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
       <c r="AH158" s="20"/>
-    </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI158" s="20"/>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11627,8 +11839,9 @@
       <c r="AF159" s="20"/>
       <c r="AG159" s="20"/>
       <c r="AH159" s="20"/>
-    </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI159" s="20"/>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11684,8 +11897,9 @@
       <c r="AF160" s="20"/>
       <c r="AG160" s="20"/>
       <c r="AH160" s="20"/>
-    </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI160" s="20"/>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11741,8 +11955,9 @@
       <c r="AF161" s="20"/>
       <c r="AG161" s="20"/>
       <c r="AH161" s="20"/>
-    </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI161" s="20"/>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11798,8 +12013,9 @@
       <c r="AF162" s="20"/>
       <c r="AG162" s="20"/>
       <c r="AH162" s="20"/>
-    </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI162" s="20"/>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11855,8 +12071,9 @@
       <c r="AF163" s="20"/>
       <c r="AG163" s="20"/>
       <c r="AH163" s="20"/>
-    </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI163" s="20"/>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11912,8 +12129,9 @@
       <c r="AF164" s="20"/>
       <c r="AG164" s="20"/>
       <c r="AH164" s="20"/>
-    </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI164" s="20"/>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11969,8 +12187,9 @@
       <c r="AF165" s="20"/>
       <c r="AG165" s="20"/>
       <c r="AH165" s="20"/>
-    </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI165" s="20"/>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -12026,8 +12245,9 @@
       <c r="AF166" s="20"/>
       <c r="AG166" s="20"/>
       <c r="AH166" s="20"/>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI166" s="20"/>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -12083,8 +12303,9 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
       <c r="AH167" s="20"/>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI167" s="20"/>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -12140,6 +12361,7 @@
       <c r="AF168" s="20"/>
       <c r="AG168" s="20"/>
       <c r="AH168" s="20"/>
+      <c r="AI168" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -16776,8 +16998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC258FBC-5143-4D4E-A2ED-043CEA6D802C}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18396,8 +18618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E41FD-B4E9-444B-A54C-D5ADAA997815}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B47" sqref="B21:B47"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18572,7 +18794,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B21" t="str">
         <f>""""&amp; A21 &amp;": " &amp;""""&amp;"&amp; "&amp; A21&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
@@ -18581,7 +18803,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22:B47" si="1">""""&amp; A22 &amp;": " &amp;""""&amp;"&amp; "&amp; A22&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
@@ -18590,7 +18812,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
@@ -18599,7 +18821,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
@@ -18608,7 +18830,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
@@ -18617,7 +18839,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
@@ -18626,7 +18848,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
@@ -18635,7 +18857,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
@@ -18644,7 +18866,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
@@ -18653,7 +18875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
@@ -18662,7 +18884,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
@@ -18671,7 +18893,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
@@ -18680,7 +18902,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
@@ -18689,7 +18911,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
@@ -18698,7 +18920,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -18707,7 +18929,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -18716,7 +18938,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -18725,7 +18947,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -18734,7 +18956,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -18743,7 +18965,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -18752,7 +18974,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
@@ -18761,7 +18983,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -18770,7 +18992,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -18779,7 +19001,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -18788,7 +19010,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
@@ -18797,7 +19019,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
@@ -18806,7 +19028,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
@@ -18820,15 +19042,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19031,21 +19244,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19064,11 +19278,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hladilpet\Documents\UiPath\PPP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlava\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4823A-8935-4BB2-A48E-AD49E9FDE3B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA430CC-1AC0-4A22-8152-47436C8E56E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="45" windowWidth="28665" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="645">
   <si>
     <t>No.</t>
   </si>
@@ -1976,6 +1979,9 @@
   </si>
   <si>
     <t>KPJM</t>
+  </si>
+  <si>
+    <t>křemílek</t>
   </si>
 </sst>
 </file>
@@ -2138,12 +2144,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="List1"/>
+      <sheetName val="DoplněkUDF"/>
     </sheetNames>
     <definedNames>
       <definedName name="ConcatenateIf"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2415,8 +2423,8 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,7 +3197,9 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="AA10" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
@@ -19042,6 +19052,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19244,22 +19269,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19276,21 +19303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlava\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA430CC-1AC0-4A22-8152-47436C8E56E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E843D6-7AA2-4673-86D6-A47F2159BA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-210" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,8 +2423,8 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,12 +2447,21 @@
     <col min="17" max="17" width="41" customWidth="1"/>
     <col min="18" max="18" width="34.5703125" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="25" width="11" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="11" customWidth="1"/>
+    <col min="27" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -19052,21 +19061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19269,24 +19263,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19303,4 +19295,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlava\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E843D6-7AA2-4673-86D6-A47F2159BA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51661E7D-5414-4C6E-A955-FDABD9EE39E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="644">
   <si>
     <t>No.</t>
   </si>
@@ -1979,9 +1979,6 @@
   </si>
   <si>
     <t>KPJM</t>
-  </si>
-  <si>
-    <t>křemílek</t>
   </si>
 </sst>
 </file>
@@ -2423,8 +2420,8 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,9 +3203,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
-        <v>644</v>
-      </c>
+      <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
@@ -19061,6 +19056,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19263,22 +19273,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19295,21 +19307,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlava\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51661E7D-5414-4C6E-A955-FDABD9EE39E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF973119-F8E7-4E27-8FFF-F1309F908073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstupniData" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="642">
   <si>
     <t>No.</t>
   </si>
@@ -1840,15 +1840,6 @@
     <t>cisloZOP</t>
   </si>
   <si>
-    <t>stav procesu 1</t>
-  </si>
-  <si>
-    <t>stav procesu2</t>
-  </si>
-  <si>
-    <t>stav procesu3</t>
-  </si>
-  <si>
     <t>doplneni 4</t>
   </si>
   <si>
@@ -1870,9 +1861,6 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Výsledek zpracování</t>
-  </si>
-  <si>
     <t>Číslo výrobního odběrného místa</t>
   </si>
   <si>
@@ -1979,6 +1967,12 @@
   </si>
   <si>
     <t>KPJM</t>
+  </si>
+  <si>
+    <t>Robot - STATUS</t>
+  </si>
+  <si>
+    <t>Robot - datum poslední aktualizace</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,12 +2029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2111,7 +2099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,10 +2405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:AL168"/>
+  <dimension ref="A1:AJ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,12 +2443,11 @@
     <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" customWidth="1"/>
+    <col min="35" max="35" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2520,62 +2506,56 @@
         <v>572</v>
       </c>
       <c r="T1" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH1" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="AI1" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="AL1" s="18"/>
-    </row>
-    <row r="2" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="18"/>
+    </row>
+    <row r="2" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(C2&lt;&gt;"",1,"")</f>
         <v>1</v>
@@ -2664,19 +2644,19 @@
 326 00 PLZEŇ
 www.cezdistribuce.cz/dodavatel</v>
       </c>
-      <c r="U2" s="26" t="str">
+      <c r="U2" s="25" t="str">
         <f>"PPP + osazení 4Q elměru pro novou FVE " &amp; M2 &amp; ", HJ stáv. " &amp;AB2 &amp;" A, sazba " &amp; AG2 &amp;", Pi "&amp; AC2 &amp;" kW, HDO ANO, KO č. " &amp; D2 &amp;" , "&amp; X2 &amp; ", " &amp; S2</f>
         <v>PPP + osazení 4Q elměru pro novou FVE MS, HJ stáv. 23 A, sazba , Pi 4 kW, HDO ANO, KO č. 1107959414 , Petr Hladil, 777875678</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="Z2" s="24">
+        <v>635</v>
+      </c>
+      <c r="Z2" s="23">
         <v>31897</v>
       </c>
       <c r="AA2" s="19"/>
@@ -2693,7 +2673,7 @@
       <c r="AH2" s="19"/>
       <c r="AI2" s="19"/>
     </row>
-    <row r="3" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(C3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
@@ -2775,7 +2755,7 @@
       <c r="AH3" s="19"/>
       <c r="AI3" s="19"/>
     </row>
-    <row r="4" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A8" si="2">IF(C4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
@@ -2843,7 +2823,7 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="25"/>
+      <c r="W4" s="24"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
@@ -2857,7 +2837,7 @@
       <c r="AH4" s="19"/>
       <c r="AI4" s="19"/>
     </row>
-    <row r="5" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2935,7 +2915,7 @@
       <c r="AD5" s="19"/>
       <c r="AI5" s="19"/>
     </row>
-    <row r="6" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3017,7 +2997,7 @@
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3057,7 +3037,7 @@
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
     </row>
-    <row r="8" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3097,7 +3077,7 @@
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(C9&lt;&gt;"",#REF!+1,"")</f>
         <v/>
@@ -3155,7 +3135,7 @@
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" ref="A10:A66" si="5">IF(C10&lt;&gt;"",A9+1,"")</f>
         <v/>
@@ -3213,7 +3193,7 @@
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3271,7 +3251,7 @@
       <c r="AH11" s="20"/>
       <c r="AI11" s="20"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3329,7 +3309,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3387,7 +3367,7 @@
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3445,7 +3425,7 @@
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3503,7 +3483,7 @@
       <c r="AH15" s="20"/>
       <c r="AI15" s="20"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -18808,7 +18788,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B21" t="str">
         <f>""""&amp; A21 &amp;": " &amp;""""&amp;"&amp; "&amp; A21&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
@@ -18817,7 +18797,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22:B47" si="1">""""&amp; A22 &amp;": " &amp;""""&amp;"&amp; "&amp; A22&amp;".ToString" &amp; " &amp; vbcrlf &amp;"</f>
@@ -18826,7 +18806,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
@@ -18835,7 +18815,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
@@ -18844,7 +18824,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
@@ -18853,7 +18833,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
@@ -18862,7 +18842,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
@@ -18871,7 +18851,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
@@ -18880,7 +18860,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
@@ -18889,7 +18869,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
@@ -18898,7 +18878,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
@@ -18907,7 +18887,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
@@ -18916,7 +18896,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
@@ -18925,7 +18905,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
@@ -18934,7 +18914,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -18943,7 +18923,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -18952,7 +18932,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -18961,7 +18941,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -18970,7 +18950,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -18979,7 +18959,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -18988,7 +18968,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
@@ -18997,7 +18977,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -19006,7 +18986,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -19015,7 +18995,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -19024,7 +19004,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
@@ -19033,7 +19013,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
@@ -19042,7 +19022,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
@@ -19056,21 +19036,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19273,24 +19238,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19307,4 +19270,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DataSet_vyplněný.xlsx
+++ b/data/DataSet_vyplněný.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlava\Documents\UiPath\PPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF973119-F8E7-4E27-8FFF-F1309F908073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF049CD6-A93C-47F2-B806-5E23509FA9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-210" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="647">
   <si>
     <t>No.</t>
   </si>
@@ -1973,6 +1973,21 @@
   </si>
   <si>
     <t>Robot - datum poslední aktualizace</t>
+  </si>
+  <si>
+    <t>proces3: zpracováno</t>
+  </si>
+  <si>
+    <t>proces2: start</t>
+  </si>
+  <si>
+    <t>proces3: start</t>
+  </si>
+  <si>
+    <t>proces2: zpracováno</t>
+  </si>
+  <si>
+    <t>proces2: chyba ()</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2422,8 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AJ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2685,9 @@
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
+      <c r="AH2" s="19" t="s">
+        <v>642</v>
+      </c>
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2752,7 +2769,9 @@
       <c r="AE3" s="19"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="AH3" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2834,7 +2853,9 @@
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AH4" s="19" t="s">
+        <v>644</v>
+      </c>
       <c r="AI4" s="19"/>
     </row>
     <row r="5" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2913,9 +2934,12 @@
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
+      <c r="AH5" s="19" t="s">
+        <v>645</v>
+      </c>
       <c r="AI5" s="19"/>
     </row>
-    <row r="6" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2994,7 +3018,9 @@
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="AI6" s="19"/>
     </row>
     <row r="7" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -19036,6 +19062,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007F6D915BEE4E844FB48C3AE514D89089" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="d4ba2a939a563b1bbfc9e4824525ecf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f7ae4a0-3828-4c27-918b-e30655340dac" xmlns:ns3="15216789-4c43-43b8-8f31-b3ff70bf4c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c2e2fc7f2dd948a6f921154beffe86e" ns2:_="" ns3:_="">
     <xsd:import namespace="6f7ae4a0-3828-4c27-918b-e30655340dac"/>
@@ -19238,22 +19279,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B4D896-6DC2-4F3D-AD63-C8A6A3E9E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19270,21 +19313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0EC7-3D52-4496-A75B-1E8C2D12B388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5159F23-DFEF-4DAD-AFD9-35AA3ABD48FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>